--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jamdahl/Documents/Code/heRomod2/inst/models/checkimab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94278923-908B-774A-B578-04C6218E3DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{064E5BB7-966A-E949-9D8F-8E0FCC51BC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="6" xr2:uid="{F2154858-BAC7-AB46-9308-23215F5D2873}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="162">
   <si>
     <t>timeframe</t>
   </si>
@@ -517,6 +517,15 @@
   </si>
   <si>
     <t>Starting cost</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>cost</t>
   </si>
 </sst>
 </file>
@@ -2024,12 +2033,13 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:F305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:F305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:G305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
     <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{2E7B5B15-6DA1-D54E-87E4-28406189E152}" name="type"/>
     <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
     <tableColumn id="6" xr3:uid="{0D833B11-05C8-C344-9243-E8CE8445DA4F}" name="destination"/>
     <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
@@ -2056,9 +2066,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2096,7 +2106,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2202,7 +2212,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2344,7 +2354,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -9155,10 +9165,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F0D78FB-8401-9E4C-9EB5-A7C336F3C948}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9166,11 +9176,12 @@
     <col min="1" max="1" width="21.33203125" customWidth="1"/>
     <col min="2" max="2" width="23.83203125" customWidth="1"/>
     <col min="3" max="3" width="43.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="35.33203125" customWidth="1"/>
-    <col min="6" max="6" width="89" customWidth="1"/>
+    <col min="4" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>7</v>
       </c>
@@ -9181,16 +9192,19 @@
         <v>8</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="G1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>128</v>
       </c>
@@ -9201,13 +9215,16 @@
         <v>130</v>
       </c>
       <c r="D2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E2" t="s">
         <v>66</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>128</v>
       </c>
@@ -9218,13 +9235,16 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
+        <v>160</v>
+      </c>
+      <c r="E3" t="s">
         <v>67</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>128</v>
       </c>
@@ -9235,13 +9255,16 @@
         <v>130</v>
       </c>
       <c r="D4" t="s">
+        <v>160</v>
+      </c>
+      <c r="E4" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>132</v>
       </c>
@@ -9252,13 +9275,16 @@
         <v>133</v>
       </c>
       <c r="D5" t="s">
+        <v>160</v>
+      </c>
+      <c r="E5" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="G5" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>132</v>
       </c>
@@ -9269,13 +9295,16 @@
         <v>133</v>
       </c>
       <c r="D6" t="s">
+        <v>160</v>
+      </c>
+      <c r="E6" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="G6" s="12" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>132</v>
       </c>
@@ -9286,13 +9315,16 @@
         <v>133</v>
       </c>
       <c r="D7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>154</v>
       </c>
@@ -9303,37 +9335,43 @@
         <v>155</v>
       </c>
       <c r="D8" t="s">
+        <v>161</v>
+      </c>
+      <c r="E8" t="s">
         <v>67</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>157</v>
       </c>
       <c r="B9" t="s">
         <v>158</v>
       </c>
-      <c r="F9" s="1">
+      <c r="D9" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="1">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="1"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9600,4 +9638,10 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2d40fa44-05dd-4301-91b0-81b668a97c30}" enabled="1" method="Standard" siteId="{4a33c544-865e-44a4-836f-bc51800f6c5e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
   <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA17FD-B2F0-2E4A-A5B0-F2F98C88E259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" firstSheet="0" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="settings" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="variables" sheetId="10" state="visible" r:id="rId2"/>
-    <sheet name="groups" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="strategies" sheetId="14" state="visible" r:id="rId4"/>
-    <sheet name="states" sheetId="15" state="visible" r:id="rId5"/>
-    <sheet name="values" sheetId="19" state="visible" r:id="rId6"/>
-    <sheet name="trees" sheetId="25" state="visible" r:id="rId7"/>
-    <sheet name="transitions" sheetId="26" state="visible" r:id="rId8"/>
+    <sheet name="settings" sheetId="1" r:id="rId1"/>
+    <sheet name="variables" sheetId="10" r:id="rId2"/>
+    <sheet name="groups" sheetId="2" r:id="rId3"/>
+    <sheet name="strategies" sheetId="14" r:id="rId4"/>
+    <sheet name="states" sheetId="15" r:id="rId5"/>
+    <sheet name="values" sheetId="19" r:id="rId6"/>
+    <sheet name="trees" sheetId="25" r:id="rId7"/>
+    <sheet name="summaries" sheetId="27" r:id="rId8"/>
+    <sheet name="transitions" sheetId="26" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
   <si>
     <t>timeframe</t>
   </si>
@@ -76,12 +84,6 @@
     <t>strategy</t>
   </si>
   <si>
-    <t>from</t>
-  </si>
-  <si>
-    <t>to</t>
-  </si>
-  <si>
     <t>C</t>
   </si>
   <si>
@@ -406,9 +408,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>lys</t>
-  </si>
-  <si>
     <t>Life-Years</t>
   </si>
   <si>
@@ -508,51 +507,92 @@
     <t>cost</t>
   </si>
   <si>
-    <t xml:space="preserve">from_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to_state</t>
-  </si>
-  <si>
-    <t xml:space="preserve">formula</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relapse_free_on_tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifelse(state_cycle &gt; 3, 0.2, 0.3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relapse_free_off_tx</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relapse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">dead</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
+    <t>from_state</t>
+  </si>
+  <si>
+    <t>to_state</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>relapse_free_on_tx</t>
+  </si>
+  <si>
+    <t>ifelse(state_cycle &gt; 3, 0.2, 0.3)</t>
+  </si>
+  <si>
+    <t>relapse_free_off_tx</t>
+  </si>
+  <si>
+    <t>relapse</t>
+  </si>
+  <si>
+    <t>dead</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.04</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>values</t>
+  </si>
+  <si>
+    <t>life_years</t>
+  </si>
+  <si>
+    <t>Life-years</t>
+  </si>
+  <si>
+    <t>init_lys, hsct_lys, post_hsct_lys, l1_maint_lys, l2_rescue_lys, l2_maint_lys, palliative_lys</t>
+  </si>
+  <si>
+    <t>init_qalys, hsct_qalys, post_hsct_qalys, l1_maint_qalys, l2_rescue_qalys, l2_maint_qalys, palliative_qalys, ae_qalys</t>
+  </si>
+  <si>
+    <t>costs</t>
+  </si>
+  <si>
+    <t>Total Costs</t>
+  </si>
+  <si>
+    <t>cost_ae, cost_routine_init, cost_routine_l1m, cost_routine_l2r, cost_routine_l2m, cost_routine_hsct, cost_routine_psthsct, cost_routine_pall, cost_med_init, cost_med_l1m, cost_med_l2r, cost_med_l2m, cost_med_post_hsct, cost_hsct</t>
+  </si>
+  <si>
+    <t>rf_on_lys</t>
+  </si>
+  <si>
+    <t>rf_off_lys</t>
+  </si>
+  <si>
+    <t>rel_lys</t>
+  </si>
+  <si>
+    <t>rf_on_qalys</t>
+  </si>
+  <si>
+    <t>rf_off_qalys</t>
+  </si>
+  <si>
+    <t>rel_qalys</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -564,22 +604,23 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <b/>
     </font>
     <font>
       <sz val="12"/>
@@ -609,7 +650,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -618,6 +659,7 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -627,54 +669,73 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -683,11 +744,18 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -702,12 +770,43 @@
       <bottom style="thin">
         <color rgb="FFFFFFFF"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thick">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -745,11 +844,17 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="54">
     <dxf>
       <font>
         <b val="0"/>
@@ -1060,117 +1165,6 @@
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
         <name val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
@@ -1945,7 +1939,95 @@
 </styleSheet>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="51" headerRowBorderDxfId="52" tableBorderDxfId="50" totalsRowBorderDxfId="49">
+  <autoFilter ref="A1:B11" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="48"/>
+    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="47"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="41"/>
+    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="40"/>
+    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="39"/>
+    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="38"/>
+    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="36"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
+  <autoFilter ref="A1:E5" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="32"/>
+    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="31"/>
+    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="29"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+  <autoFilter ref="A1:D16" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="23"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
+    <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
+    <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
+    <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
+    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="17"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
+  <autoFilter ref="A1:G305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
+    <tableColumn id="7" xr3:uid="{2E7B5B15-6DA1-D54E-87E4-28406189E152}" name="type"/>
+    <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
+    <tableColumn id="6" xr3:uid="{0D833B11-05C8-C344-9243-E8CE8445DA4F}" name="destination"/>
+    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A99E0259-71F7-5349-842A-81C2337E843A}" name="Table412" displayName="Table412" ref="A1:H21" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H21" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
   <tableColumns count="8">
@@ -1957,94 +2039,6 @@
     <tableColumn id="2" xr3:uid="{14589F4D-18F4-2C4E-B1AD-831CF7E8134A}" name="node_description" dataDxfId="2"/>
     <tableColumn id="7" xr3:uid="{992CDC3E-A44D-F547-BCB5-1048FCB8AE4E}" name="tags" dataDxfId="1"/>
     <tableColumn id="5" xr3:uid="{27B03F7E-CB8D-FB48-B9A6-86975CD1194F}" name="formula" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{3FB90E4A-B701-9349-A2FF-9FA1A4AA80AF}" name="Table3" displayName="Table3" ref="A1:B11" totalsRowShown="0" headerRowDxfId="58" dataDxfId="56" headerRowBorderDxfId="57" tableBorderDxfId="55" totalsRowBorderDxfId="54">
-  <autoFilter ref="A1:B11" xr:uid="{E95DCB53-1EAD-4C42-A79B-94CAA67662E9}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{047CA166-C426-8945-9CE9-15BAE71AF547}" name="setting" dataDxfId="53"/>
-    <tableColumn id="2" xr3:uid="{3EC8FA45-F60E-DB40-98AB-411C79177ED2}" name="value" dataDxfId="52"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="51" dataDxfId="50" tableBorderDxfId="49">
-  <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="48"/>
-    <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{63526D68-1716-6448-B99B-CEBB86C8242D}" name="description" dataDxfId="46"/>
-    <tableColumn id="6" xr3:uid="{AAB4E451-EEBB-A044-8AD0-9290DF1E2375}" name="strategy" dataDxfId="45"/>
-    <tableColumn id="7" xr3:uid="{3D31035A-B4B1-B64A-87FB-CCC8C775DF25}" name="group" dataDxfId="44"/>
-    <tableColumn id="4" xr3:uid="{427DFF91-8F93-0145-9131-C95DC4252B95}" name="formula" dataDxfId="43"/>
-    <tableColumn id="8" xr3:uid="{10971855-F585-B248-B675-EED7430FEFA2}" name="sampling" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{BFC96336-E3CF-2440-BE04-07C88F5381BB}" name="source" dataDxfId="41"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{848A7D5C-EB27-7A4F-89E3-BE69E0713E83}" name="Table4" displayName="Table4" ref="A1:E5" totalsRowShown="0" headerRowDxfId="40" dataDxfId="39">
-  <autoFilter ref="A1:E5" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{D45418EA-2F30-AD4B-9A80-81EA7CFFD3A6}" name="name" dataDxfId="38"/>
-    <tableColumn id="4" xr3:uid="{F15BE751-2E1F-6D45-B6CA-4B36A3DBAF1F}" name="display_name" dataDxfId="37"/>
-    <tableColumn id="2" xr3:uid="{2DE37434-05F3-2C49-8B39-6141D82E12D4}" name="description" dataDxfId="36"/>
-    <tableColumn id="3" xr3:uid="{921E3B01-3DE0-B949-9ECA-84145DD4961B}" name="weight" dataDxfId="35"/>
-    <tableColumn id="5" xr3:uid="{2C5B087B-AA5D-8044-9269-45693F645B8A}" name="enabled" dataDxfId="34"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A3735BD8-BE90-F145-B9D1-6F21AD4EC4DD}" name="Table48" displayName="Table48" ref="A1:D16" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
-  <autoFilter ref="A1:D16" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D2109DA5-F8C7-1B48-8FA8-9CE2A6E54806}" name="name" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{78BE1725-4B12-FA40-9F4C-A8B91618D230}" name="display_name" dataDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{EB0ED736-D7D3-6D4A-80D8-FFDFD7676DEB}" name="description" dataDxfId="29"/>
-    <tableColumn id="3" xr3:uid="{CE38F532-648B-8E47-9229-7AE2F2A5A3BF}" name="enabled" dataDxfId="28"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A04C3E6A-433E-0545-80A3-CBB5A6412F2F}" name="Table483" displayName="Table483" ref="A1:H59" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26">
-  <autoFilter ref="A1:H59" xr:uid="{2CFAE648-E5AA-244E-82B1-47EEAD39A8AC}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{11FBCC06-DBFA-A941-9390-FDA6DFC2DF08}" name="name" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{F1165C82-7EB6-3C4E-A6D0-9C7580824800}" name="display_name" dataDxfId="24"/>
-    <tableColumn id="2" xr3:uid="{921BCE85-2052-2041-AA5B-3EF268AF0D24}" name="description" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{C80C7590-8767-2844-BE04-8DED1FE1D657}" name="initial_probability"/>
-    <tableColumn id="7" xr3:uid="{B9A684F9-BC62-284E-89EE-1142A552E18D}" name="state_group"/>
-    <tableColumn id="8" xr3:uid="{88DA97B5-C90D-B744-B0A5-283879E36586}" name="share_state_time"/>
-    <tableColumn id="6" xr3:uid="{A2855E5E-974C-BC49-8A0D-412678CF7025}" name="state_cycle_limit"/>
-    <tableColumn id="3" xr3:uid="{F3470966-7A21-5646-A493-EB3471A72394}" name="state_cycle_limit_unit" dataDxfId="22"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{ECAEE805-6565-A54F-9DEE-3F776EC12FFC}" name="Table17" displayName="Table17" ref="A1:G305" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15" tableBorderDxfId="14">
-  <autoFilter ref="A1:G305" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B672616B-5AD7-C04F-85D1-A80CD6C05684}" name="name" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{9359D359-E665-004E-AFAA-ED095E5901BE}" name="display_name" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{81785362-73A1-9448-94BF-3672160AD33A}" name="description" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{2E7B5B15-6DA1-D54E-87E4-28406189E152}" name="type"/>
-    <tableColumn id="5" xr3:uid="{C60112EB-A39D-9044-AA87-C45800C17C3E}" name="state"/>
-    <tableColumn id="6" xr3:uid="{0D833B11-05C8-C344-9243-E8CE8445DA4F}" name="destination"/>
-    <tableColumn id="4" xr3:uid="{F2BEAA99-68A5-0A43-AAFE-628903802CE7}" name="formula" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2346,52 +2340,49 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A11" sqref="A11:B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="23" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="23" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="23" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="23" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="15.5" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="21.83203125" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="17.1640625" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="17.1640625" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="3" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="19.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15.5" customWidth="1"/>
+    <col min="9" max="9" width="21.83203125" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -2399,39 +2390,39 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="3" t="n">
+      <c r="B5" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="n">
+      <c r="B7" s="3">
         <v>3.5</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="4" t="n">
+      <c r="B8" s="4">
         <v>3.5</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -2439,52 +2430,52 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B10" s="4" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" s="4" t="n">
+        <v>149</v>
+      </c>
+      <c r="B11" s="4">
         <v>365</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H570"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.33203125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="46.1640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="47.83203125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="58.5" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="38.5" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="40" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="46.1640625" customWidth="1"/>
+    <col min="3" max="3" width="47.83203125" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="58.5" customWidth="1"/>
+    <col min="7" max="7" width="38.5" customWidth="1"/>
+    <col min="8" max="8" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -2498,539 +2489,539 @@
         <v>17</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F1" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="H1" s="10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2" s="7" t="n">
+        <v>46</v>
+      </c>
+      <c r="F2" s="7">
         <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H2" s="7"/>
     </row>
-    <row r="3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="7" t="n">
+        <v>47</v>
+      </c>
+      <c r="F3" s="7">
         <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H3" s="7"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="7" t="n">
+        <v>52</v>
+      </c>
+      <c r="F4" s="7">
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H4" s="7"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>77</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="7" t="n">
+        <v>53</v>
+      </c>
+      <c r="F5" s="7">
         <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H5" s="7"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="C6" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="C7" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="C9" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D12" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="7"/>
+      <c r="F12" s="7">
+        <v>1E-3</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H12" s="7"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" t="s">
+        <v>59</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="H13" s="7"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="D14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7" t="n">
-        <v>1E-3</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" t="s">
-        <v>61</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7" t="n">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="D14" t="s">
-        <v>62</v>
-      </c>
       <c r="E14" s="7"/>
-      <c r="F14" s="7" t="n">
+      <c r="F14" s="7">
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H14" s="7"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7" t="n">
+      <c r="F15" s="7">
         <v>1000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H15" s="7"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C16" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C17" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D17" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D20" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H26" s="7"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -3039,7 +3030,7 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -3048,7 +3039,7 @@
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -3057,7 +3048,7 @@
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
     </row>
-    <row r="31">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -3066,7 +3057,7 @@
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -3076,7 +3067,7 @@
       <c r="G32" s="7"/>
       <c r="H32" s="7"/>
     </row>
-    <row r="33">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -3086,7 +3077,7 @@
       <c r="G33" s="7"/>
       <c r="H33" s="7"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A34" s="7"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -3096,7 +3087,7 @@
       <c r="G34" s="7"/>
       <c r="H34" s="7"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A35" s="7"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -3106,7 +3097,7 @@
       <c r="G35" s="7"/>
       <c r="H35" s="7"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A36" s="7"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -3116,7 +3107,7 @@
       <c r="G36" s="7"/>
       <c r="H36" s="7"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="7"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -3126,7 +3117,7 @@
       <c r="G37" s="7"/>
       <c r="H37" s="7"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -3136,7 +3127,7 @@
       <c r="G38" s="7"/>
       <c r="H38" s="7"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -3146,7 +3137,7 @@
       <c r="G39" s="7"/>
       <c r="H39" s="7"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -3156,7 +3147,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -3166,7 +3157,7 @@
       <c r="G41" s="7"/>
       <c r="H41" s="7"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" s="7"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -3176,7 +3167,7 @@
       <c r="G42" s="7"/>
       <c r="H42" s="7"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" s="7"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -3186,7 +3177,7 @@
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" s="7"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -3196,7 +3187,7 @@
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="7"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -3206,7 +3197,7 @@
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -3216,7 +3207,7 @@
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -3226,7 +3217,7 @@
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -3236,7 +3227,7 @@
       <c r="G48" s="7"/>
       <c r="H48" s="7"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -3246,7 +3237,7 @@
       <c r="G49" s="7"/>
       <c r="H49" s="7"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="7"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -3256,7 +3247,7 @@
       <c r="G50" s="7"/>
       <c r="H50" s="7"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="7"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -3266,7 +3257,7 @@
       <c r="G51" s="7"/>
       <c r="H51" s="7"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="7"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -3276,7 +3267,7 @@
       <c r="G52" s="7"/>
       <c r="H52" s="7"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="7"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -3286,7 +3277,7 @@
       <c r="G53" s="7"/>
       <c r="H53" s="7"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -3296,7 +3287,7 @@
       <c r="G54" s="7"/>
       <c r="H54" s="7"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -3306,7 +3297,7 @@
       <c r="G55" s="7"/>
       <c r="H55" s="7"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -3316,7 +3307,7 @@
       <c r="G56" s="7"/>
       <c r="H56" s="7"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -3326,7 +3317,7 @@
       <c r="G57" s="7"/>
       <c r="H57" s="7"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="7"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -3336,7 +3327,7 @@
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="7"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -3346,7 +3337,7 @@
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" s="7"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -3356,7 +3347,7 @@
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="7"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -3366,7 +3357,7 @@
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" s="7"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -3376,7 +3367,7 @@
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" s="7"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -3386,7 +3377,7 @@
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" s="7"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -3396,7 +3387,7 @@
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" s="7"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -3406,7 +3397,7 @@
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" s="7"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -3416,7 +3407,7 @@
       <c r="G66" s="7"/>
       <c r="H66" s="7"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" s="7"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -3426,7 +3417,7 @@
       <c r="G67" s="7"/>
       <c r="H67" s="7"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="7"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -3436,7 +3427,7 @@
       <c r="G68" s="7"/>
       <c r="H68" s="7"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" s="7"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -3446,7 +3437,7 @@
       <c r="G69" s="7"/>
       <c r="H69" s="7"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="7"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -3456,7 +3447,7 @@
       <c r="G70" s="7"/>
       <c r="H70" s="7"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" s="7"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -3466,7 +3457,7 @@
       <c r="G71" s="7"/>
       <c r="H71" s="7"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" s="7"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -3476,7 +3467,7 @@
       <c r="G72" s="7"/>
       <c r="H72" s="7"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" s="7"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -3486,7 +3477,7 @@
       <c r="G73" s="7"/>
       <c r="H73" s="7"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="7"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -3496,7 +3487,7 @@
       <c r="G74" s="7"/>
       <c r="H74" s="7"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" s="7"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -3506,7 +3497,7 @@
       <c r="G75" s="7"/>
       <c r="H75" s="7"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" s="7"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -3516,7 +3507,7 @@
       <c r="G76" s="7"/>
       <c r="H76" s="7"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" s="7"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -3526,7 +3517,7 @@
       <c r="G77" s="7"/>
       <c r="H77" s="7"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" s="7"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -3536,7 +3527,7 @@
       <c r="G78" s="7"/>
       <c r="H78" s="7"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="7"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -3546,7 +3537,7 @@
       <c r="G79" s="7"/>
       <c r="H79" s="7"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="7"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -3556,7 +3547,7 @@
       <c r="G80" s="7"/>
       <c r="H80" s="7"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="7"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -3566,7 +3557,7 @@
       <c r="G81" s="7"/>
       <c r="H81" s="7"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="7"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -3576,7 +3567,7 @@
       <c r="G82" s="7"/>
       <c r="H82" s="7"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="7"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -3586,7 +3577,7 @@
       <c r="G83" s="7"/>
       <c r="H83" s="7"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="7"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -3596,7 +3587,7 @@
       <c r="G84" s="7"/>
       <c r="H84" s="7"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="7"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -3606,7 +3597,7 @@
       <c r="G85" s="7"/>
       <c r="H85" s="7"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" s="7"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -3616,7 +3607,7 @@
       <c r="G86" s="7"/>
       <c r="H86" s="7"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="7"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -3626,7 +3617,7 @@
       <c r="G87" s="7"/>
       <c r="H87" s="7"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="7"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -3636,7 +3627,7 @@
       <c r="G88" s="7"/>
       <c r="H88" s="7"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" s="7"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -3646,7 +3637,7 @@
       <c r="G89" s="7"/>
       <c r="H89" s="7"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" s="7"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -3656,7 +3647,7 @@
       <c r="G90" s="7"/>
       <c r="H90" s="7"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="7"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -3666,7 +3657,7 @@
       <c r="G91" s="7"/>
       <c r="H91" s="7"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="7"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -3676,7 +3667,7 @@
       <c r="G92" s="7"/>
       <c r="H92" s="7"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="7"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -3686,7 +3677,7 @@
       <c r="G93" s="7"/>
       <c r="H93" s="7"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="7"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -3696,7 +3687,7 @@
       <c r="G94" s="7"/>
       <c r="H94" s="7"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="7"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -3706,7 +3697,7 @@
       <c r="G95" s="7"/>
       <c r="H95" s="7"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" s="7"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -3716,7 +3707,7 @@
       <c r="G96" s="7"/>
       <c r="H96" s="7"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" s="7"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -3726,7 +3717,7 @@
       <c r="G97" s="7"/>
       <c r="H97" s="7"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="7"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -3736,7 +3727,7 @@
       <c r="G98" s="7"/>
       <c r="H98" s="7"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="7"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -3746,7 +3737,7 @@
       <c r="G99" s="7"/>
       <c r="H99" s="7"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="7"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -3756,7 +3747,7 @@
       <c r="G100" s="7"/>
       <c r="H100" s="7"/>
     </row>
-    <row r="101">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="7"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -3766,7 +3757,7 @@
       <c r="G101" s="7"/>
       <c r="H101" s="7"/>
     </row>
-    <row r="102">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="7"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -3776,7 +3767,7 @@
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="7"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -3786,7 +3777,7 @@
       <c r="G103" s="7"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A104" s="7"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -3796,7 +3787,7 @@
       <c r="G104" s="7"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A105" s="7"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -3806,7 +3797,7 @@
       <c r="G105" s="7"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A106" s="7"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3816,7 +3807,7 @@
       <c r="G106" s="7"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A107" s="7"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3826,7 +3817,7 @@
       <c r="G107" s="7"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A108" s="7"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3836,7 +3827,7 @@
       <c r="G108" s="7"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A109" s="7"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3846,7 +3837,7 @@
       <c r="G109" s="7"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A110" s="7"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3856,7 +3847,7 @@
       <c r="G110" s="7"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A111" s="7"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3866,7 +3857,7 @@
       <c r="G111" s="7"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A112" s="7"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3876,7 +3867,7 @@
       <c r="G112" s="7"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A113" s="7"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3886,7 +3877,7 @@
       <c r="G113" s="7"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A114" s="7"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3896,7 +3887,7 @@
       <c r="G114" s="7"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A115" s="7"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3906,7 +3897,7 @@
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A116" s="7"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3916,7 +3907,7 @@
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A117" s="7"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3926,7 +3917,7 @@
       <c r="G117" s="7"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A118" s="7"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3936,7 +3927,7 @@
       <c r="G118" s="7"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A119" s="7"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3946,7 +3937,7 @@
       <c r="G119" s="7"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A120" s="7"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3956,7 +3947,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A121" s="7"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3966,7 +3957,7 @@
       <c r="G121" s="7"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A122" s="7"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3976,7 +3967,7 @@
       <c r="G122" s="7"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A123" s="7"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3986,7 +3977,7 @@
       <c r="G123" s="7"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A124" s="7"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3996,7 +3987,7 @@
       <c r="G124" s="7"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A125" s="7"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -4006,7 +3997,7 @@
       <c r="G125" s="7"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A126" s="7"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -4016,7 +4007,7 @@
       <c r="G126" s="7"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A127" s="7"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -4026,7 +4017,7 @@
       <c r="G127" s="7"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A128" s="7"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -4036,7 +4027,7 @@
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A129" s="7"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -4046,7 +4037,7 @@
       <c r="G129" s="7"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A130" s="7"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -4056,7 +4047,7 @@
       <c r="G130" s="7"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A131" s="7"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -4066,7 +4057,7 @@
       <c r="G131" s="7"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A132" s="7"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -4076,7 +4067,7 @@
       <c r="G132" s="7"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A133" s="7"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -4086,7 +4077,7 @@
       <c r="G133" s="7"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A134" s="7"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -4096,7 +4087,7 @@
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A135" s="7"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -4106,7 +4097,7 @@
       <c r="G135" s="7"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A136" s="7"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -4116,7 +4107,7 @@
       <c r="G136" s="7"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A137" s="7"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -4126,7 +4117,7 @@
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A138" s="7"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -4136,7 +4127,7 @@
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A139" s="7"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -4146,7 +4137,7 @@
       <c r="G139" s="7"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A140" s="7"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -4156,7 +4147,7 @@
       <c r="G140" s="7"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A141" s="7"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -4166,7 +4157,7 @@
       <c r="G141" s="7"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A142" s="7"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -4176,7 +4167,7 @@
       <c r="G142" s="7"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A143" s="7"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -4186,7 +4177,7 @@
       <c r="G143" s="7"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A144" s="7"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -4196,7 +4187,7 @@
       <c r="G144" s="7"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A145" s="7"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -4206,7 +4197,7 @@
       <c r="G145" s="7"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A146" s="7"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -4216,7 +4207,7 @@
       <c r="G146" s="7"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A147" s="7"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -4226,7 +4217,7 @@
       <c r="G147" s="7"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A148" s="7"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -4236,7 +4227,7 @@
       <c r="G148" s="7"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A149" s="7"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -4246,7 +4237,7 @@
       <c r="G149" s="7"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A150" s="7"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -4256,7 +4247,7 @@
       <c r="G150" s="7"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A151" s="7"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -4266,7 +4257,7 @@
       <c r="G151" s="7"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A152" s="7"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -4276,7 +4267,7 @@
       <c r="G152" s="7"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A153" s="7"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -4286,7 +4277,7 @@
       <c r="G153" s="7"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A154" s="7"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -4296,7 +4287,7 @@
       <c r="G154" s="7"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A155" s="7"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -4306,7 +4297,7 @@
       <c r="G155" s="7"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A156" s="7"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -4316,7 +4307,7 @@
       <c r="G156" s="7"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A157" s="7"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -4326,7 +4317,7 @@
       <c r="G157" s="7"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A158" s="7"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -4336,7 +4327,7 @@
       <c r="G158" s="7"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A159" s="7"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -4346,7 +4337,7 @@
       <c r="G159" s="7"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A160" s="7"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -4356,7 +4347,7 @@
       <c r="G160" s="7"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A161" s="7"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -4366,7 +4357,7 @@
       <c r="G161" s="7"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" s="7"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -4376,7 +4367,7 @@
       <c r="G162" s="7"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A163" s="7"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -4386,7 +4377,7 @@
       <c r="G163" s="7"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A164" s="7"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -4396,7 +4387,7 @@
       <c r="G164" s="7"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A165" s="7"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -4406,7 +4397,7 @@
       <c r="G165" s="7"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A166" s="7"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -4416,7 +4407,7 @@
       <c r="G166" s="7"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A167" s="7"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -4426,7 +4417,7 @@
       <c r="G167" s="7"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A168" s="7"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -4436,7 +4427,7 @@
       <c r="G168" s="7"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A169" s="7"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -4446,7 +4437,7 @@
       <c r="G169" s="7"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A170" s="7"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -4456,7 +4447,7 @@
       <c r="G170" s="7"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A171" s="7"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -4466,7 +4457,7 @@
       <c r="G171" s="7"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A172" s="7"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -4476,7 +4467,7 @@
       <c r="G172" s="7"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A173" s="7"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -4486,7 +4477,7 @@
       <c r="G173" s="7"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A174" s="7"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -4496,7 +4487,7 @@
       <c r="G174" s="7"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A175" s="7"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -4506,7 +4497,7 @@
       <c r="G175" s="7"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A176" s="7"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -4516,7 +4507,7 @@
       <c r="G176" s="7"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A177" s="7"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -4526,7 +4517,7 @@
       <c r="G177" s="7"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A178" s="7"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -4536,7 +4527,7 @@
       <c r="G178" s="7"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A179" s="7"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -4546,7 +4537,7 @@
       <c r="G179" s="7"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A180" s="7"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -4556,7 +4547,7 @@
       <c r="G180" s="7"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A181" s="7"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -4566,7 +4557,7 @@
       <c r="G181" s="7"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A182" s="7"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -4576,7 +4567,7 @@
       <c r="G182" s="7"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A183" s="7"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -4586,7 +4577,7 @@
       <c r="G183" s="7"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A184" s="7"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -4596,7 +4587,7 @@
       <c r="G184" s="7"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A185" s="7"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -4606,7 +4597,7 @@
       <c r="G185" s="7"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A186" s="7"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -4616,7 +4607,7 @@
       <c r="G186" s="7"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A187" s="7"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -4626,7 +4617,7 @@
       <c r="G187" s="7"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A188" s="7"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -4636,7 +4627,7 @@
       <c r="G188" s="7"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A189" s="7"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -4646,7 +4637,7 @@
       <c r="G189" s="7"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A190" s="7"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -4656,7 +4647,7 @@
       <c r="G190" s="7"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A191" s="7"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -4666,7 +4657,7 @@
       <c r="G191" s="7"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A192" s="7"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -4676,7 +4667,7 @@
       <c r="G192" s="7"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A193" s="7"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -4686,7 +4677,7 @@
       <c r="G193" s="7"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A194" s="7"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -4696,7 +4687,7 @@
       <c r="G194" s="7"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A195" s="7"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -4706,7 +4697,7 @@
       <c r="G195" s="7"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A196" s="7"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -4716,7 +4707,7 @@
       <c r="G196" s="7"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A197" s="7"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -4726,7 +4717,7 @@
       <c r="G197" s="7"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A198" s="7"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -4736,7 +4727,7 @@
       <c r="G198" s="7"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A199" s="7"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -4746,7 +4737,7 @@
       <c r="G199" s="7"/>
       <c r="H199" s="7"/>
     </row>
-    <row r="200">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A200" s="7"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -4756,7 +4747,7 @@
       <c r="G200" s="7"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A201" s="7"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -4766,7 +4757,7 @@
       <c r="G201" s="7"/>
       <c r="H201" s="7"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A202" s="7"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -4776,7 +4767,7 @@
       <c r="G202" s="7"/>
       <c r="H202" s="7"/>
     </row>
-    <row r="203">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A203" s="7"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -4786,7 +4777,7 @@
       <c r="G203" s="7"/>
       <c r="H203" s="7"/>
     </row>
-    <row r="204">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A204" s="7"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -4796,7 +4787,7 @@
       <c r="G204" s="7"/>
       <c r="H204" s="7"/>
     </row>
-    <row r="205">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A205" s="7"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -4806,7 +4797,7 @@
       <c r="G205" s="7"/>
       <c r="H205" s="7"/>
     </row>
-    <row r="206">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A206" s="7"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -4816,7 +4807,7 @@
       <c r="G206" s="7"/>
       <c r="H206" s="7"/>
     </row>
-    <row r="207">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A207" s="7"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -4826,7 +4817,7 @@
       <c r="G207" s="7"/>
       <c r="H207" s="7"/>
     </row>
-    <row r="208">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A208" s="7"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -4836,7 +4827,7 @@
       <c r="G208" s="7"/>
       <c r="H208" s="7"/>
     </row>
-    <row r="209">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A209" s="7"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -4846,7 +4837,7 @@
       <c r="G209" s="7"/>
       <c r="H209" s="7"/>
     </row>
-    <row r="210">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A210" s="7"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4856,7 +4847,7 @@
       <c r="G210" s="7"/>
       <c r="H210" s="7"/>
     </row>
-    <row r="211">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A211" s="7"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -4866,7 +4857,7 @@
       <c r="G211" s="7"/>
       <c r="H211" s="7"/>
     </row>
-    <row r="212">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" s="7"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -4876,7 +4867,7 @@
       <c r="G212" s="7"/>
       <c r="H212" s="7"/>
     </row>
-    <row r="213">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A213" s="7"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -4886,7 +4877,7 @@
       <c r="G213" s="7"/>
       <c r="H213" s="7"/>
     </row>
-    <row r="214">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A214" s="7"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -4896,7 +4887,7 @@
       <c r="G214" s="7"/>
       <c r="H214" s="7"/>
     </row>
-    <row r="215">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A215" s="7"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -4906,7 +4897,7 @@
       <c r="G215" s="7"/>
       <c r="H215" s="7"/>
     </row>
-    <row r="216">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A216" s="7"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -4916,7 +4907,7 @@
       <c r="G216" s="7"/>
       <c r="H216" s="7"/>
     </row>
-    <row r="217">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A217" s="7"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -4926,7 +4917,7 @@
       <c r="G217" s="7"/>
       <c r="H217" s="7"/>
     </row>
-    <row r="218">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A218" s="7"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -4936,7 +4927,7 @@
       <c r="G218" s="7"/>
       <c r="H218" s="7"/>
     </row>
-    <row r="219">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A219" s="7"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -4946,7 +4937,7 @@
       <c r="G219" s="7"/>
       <c r="H219" s="7"/>
     </row>
-    <row r="220">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A220" s="7"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -4956,7 +4947,7 @@
       <c r="G220" s="7"/>
       <c r="H220" s="7"/>
     </row>
-    <row r="221">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A221" s="7"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -4966,7 +4957,7 @@
       <c r="G221" s="7"/>
       <c r="H221" s="7"/>
     </row>
-    <row r="222">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A222" s="7"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -4976,7 +4967,7 @@
       <c r="G222" s="7"/>
       <c r="H222" s="7"/>
     </row>
-    <row r="223">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A223" s="7"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -4986,7 +4977,7 @@
       <c r="G223" s="7"/>
       <c r="H223" s="7"/>
     </row>
-    <row r="224">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A224" s="7"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -4996,7 +4987,7 @@
       <c r="G224" s="7"/>
       <c r="H224" s="7"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A225" s="7"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -5006,7 +4997,7 @@
       <c r="G225" s="7"/>
       <c r="H225" s="7"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A226" s="7"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -5016,7 +5007,7 @@
       <c r="G226" s="7"/>
       <c r="H226" s="7"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A227" s="7"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -5026,7 +5017,7 @@
       <c r="G227" s="7"/>
       <c r="H227" s="7"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A228" s="7"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -5036,7 +5027,7 @@
       <c r="G228" s="7"/>
       <c r="H228" s="7"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A229" s="7"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -5046,7 +5037,7 @@
       <c r="G229" s="7"/>
       <c r="H229" s="7"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A230" s="7"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -5056,7 +5047,7 @@
       <c r="G230" s="7"/>
       <c r="H230" s="7"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A231" s="7"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -5066,7 +5057,7 @@
       <c r="G231" s="7"/>
       <c r="H231" s="7"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A232" s="7"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -5076,7 +5067,7 @@
       <c r="G232" s="7"/>
       <c r="H232" s="7"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A233" s="7"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -5086,7 +5077,7 @@
       <c r="G233" s="7"/>
       <c r="H233" s="7"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A234" s="7"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -5096,7 +5087,7 @@
       <c r="G234" s="7"/>
       <c r="H234" s="7"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A235" s="7"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -5106,7 +5097,7 @@
       <c r="G235" s="7"/>
       <c r="H235" s="7"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A236" s="7"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -5116,7 +5107,7 @@
       <c r="G236" s="7"/>
       <c r="H236" s="7"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A237" s="7"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -5126,7 +5117,7 @@
       <c r="G237" s="7"/>
       <c r="H237" s="7"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A238" s="7"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -5136,7 +5127,7 @@
       <c r="G238" s="7"/>
       <c r="H238" s="7"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A239" s="7"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -5146,7 +5137,7 @@
       <c r="G239" s="7"/>
       <c r="H239" s="7"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A240" s="7"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -5156,7 +5147,7 @@
       <c r="G240" s="7"/>
       <c r="H240" s="7"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241" s="7"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -5166,7 +5157,7 @@
       <c r="G241" s="7"/>
       <c r="H241" s="7"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242" s="7"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -5176,7 +5167,7 @@
       <c r="G242" s="7"/>
       <c r="H242" s="7"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243" s="7"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -5186,7 +5177,7 @@
       <c r="G243" s="7"/>
       <c r="H243" s="7"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244" s="7"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -5196,7 +5187,7 @@
       <c r="G244" s="7"/>
       <c r="H244" s="7"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245" s="7"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -5206,7 +5197,7 @@
       <c r="G245" s="7"/>
       <c r="H245" s="7"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246" s="7"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -5216,7 +5207,7 @@
       <c r="G246" s="7"/>
       <c r="H246" s="7"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247" s="7"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -5226,7 +5217,7 @@
       <c r="G247" s="7"/>
       <c r="H247" s="7"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248" s="7"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -5236,7 +5227,7 @@
       <c r="G248" s="7"/>
       <c r="H248" s="7"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249" s="7"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -5246,7 +5237,7 @@
       <c r="G249" s="7"/>
       <c r="H249" s="7"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250" s="7"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -5256,7 +5247,7 @@
       <c r="G250" s="7"/>
       <c r="H250" s="7"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251" s="7"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -5266,7 +5257,7 @@
       <c r="G251" s="7"/>
       <c r="H251" s="7"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252" s="7"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -5276,7 +5267,7 @@
       <c r="G252" s="7"/>
       <c r="H252" s="7"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253" s="7"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -5286,7 +5277,7 @@
       <c r="G253" s="7"/>
       <c r="H253" s="7"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254" s="7"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -5296,7 +5287,7 @@
       <c r="G254" s="7"/>
       <c r="H254" s="7"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255" s="7"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -5306,7 +5297,7 @@
       <c r="G255" s="7"/>
       <c r="H255" s="7"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256" s="7"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -5316,7 +5307,7 @@
       <c r="G256" s="7"/>
       <c r="H256" s="7"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257" s="7"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -5326,7 +5317,7 @@
       <c r="G257" s="7"/>
       <c r="H257" s="7"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258" s="7"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -5336,7 +5327,7 @@
       <c r="G258" s="7"/>
       <c r="H258" s="7"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259" s="7"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -5346,7 +5337,7 @@
       <c r="G259" s="7"/>
       <c r="H259" s="7"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260" s="7"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -5356,7 +5347,7 @@
       <c r="G260" s="7"/>
       <c r="H260" s="7"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261" s="7"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -5366,7 +5357,7 @@
       <c r="G261" s="7"/>
       <c r="H261" s="7"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262" s="7"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -5376,7 +5367,7 @@
       <c r="G262" s="7"/>
       <c r="H262" s="7"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263" s="7"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -5386,7 +5377,7 @@
       <c r="G263" s="7"/>
       <c r="H263" s="7"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" s="7"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -5396,7 +5387,7 @@
       <c r="G264" s="7"/>
       <c r="H264" s="7"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265" s="7"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -5406,7 +5397,7 @@
       <c r="G265" s="7"/>
       <c r="H265" s="7"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266" s="7"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -5416,7 +5407,7 @@
       <c r="G266" s="7"/>
       <c r="H266" s="7"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267" s="7"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -5426,7 +5417,7 @@
       <c r="G267" s="7"/>
       <c r="H267" s="7"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268" s="7"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -5436,7 +5427,7 @@
       <c r="G268" s="7"/>
       <c r="H268" s="7"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269" s="7"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -5446,7 +5437,7 @@
       <c r="G269" s="7"/>
       <c r="H269" s="7"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270" s="7"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -5456,7 +5447,7 @@
       <c r="G270" s="7"/>
       <c r="H270" s="7"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271" s="7"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -5466,7 +5457,7 @@
       <c r="G271" s="7"/>
       <c r="H271" s="7"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272" s="7"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -5476,7 +5467,7 @@
       <c r="G272" s="7"/>
       <c r="H272" s="7"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A273" s="7"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -5486,7 +5477,7 @@
       <c r="G273" s="7"/>
       <c r="H273" s="7"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A274" s="7"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -5496,7 +5487,7 @@
       <c r="G274" s="7"/>
       <c r="H274" s="7"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A275" s="7"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -5506,7 +5497,7 @@
       <c r="G275" s="7"/>
       <c r="H275" s="7"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A276" s="7"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -5516,7 +5507,7 @@
       <c r="G276" s="7"/>
       <c r="H276" s="7"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A277" s="7"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -5526,7 +5517,7 @@
       <c r="G277" s="7"/>
       <c r="H277" s="7"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A278" s="7"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -5536,7 +5527,7 @@
       <c r="G278" s="7"/>
       <c r="H278" s="7"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A279" s="7"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -5546,7 +5537,7 @@
       <c r="G279" s="7"/>
       <c r="H279" s="7"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A280" s="7"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -5556,7 +5547,7 @@
       <c r="G280" s="7"/>
       <c r="H280" s="7"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A281" s="7"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -5566,7 +5557,7 @@
       <c r="G281" s="7"/>
       <c r="H281" s="7"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A282" s="7"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -5576,7 +5567,7 @@
       <c r="G282" s="7"/>
       <c r="H282" s="7"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A283" s="7"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -5586,7 +5577,7 @@
       <c r="G283" s="7"/>
       <c r="H283" s="7"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A284" s="7"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -5596,7 +5587,7 @@
       <c r="G284" s="7"/>
       <c r="H284" s="7"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A285" s="7"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -5606,7 +5597,7 @@
       <c r="G285" s="7"/>
       <c r="H285" s="7"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A286" s="7"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -5616,7 +5607,7 @@
       <c r="G286" s="7"/>
       <c r="H286" s="7"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A287" s="7"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -5626,7 +5617,7 @@
       <c r="G287" s="7"/>
       <c r="H287" s="7"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A288" s="7"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -5636,7 +5627,7 @@
       <c r="G288" s="7"/>
       <c r="H288" s="7"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289" s="7"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -5646,7 +5637,7 @@
       <c r="G289" s="7"/>
       <c r="H289" s="7"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290" s="7"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -5656,7 +5647,7 @@
       <c r="G290" s="7"/>
       <c r="H290" s="7"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291" s="7"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -5666,7 +5657,7 @@
       <c r="G291" s="7"/>
       <c r="H291" s="7"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292" s="7"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -5676,7 +5667,7 @@
       <c r="G292" s="7"/>
       <c r="H292" s="7"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293" s="7"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -5686,7 +5677,7 @@
       <c r="G293" s="7"/>
       <c r="H293" s="7"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294" s="7"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -5696,7 +5687,7 @@
       <c r="G294" s="7"/>
       <c r="H294" s="7"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295" s="7"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -5706,7 +5697,7 @@
       <c r="G295" s="7"/>
       <c r="H295" s="7"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296" s="7"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -5716,7 +5707,7 @@
       <c r="G296" s="7"/>
       <c r="H296" s="7"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297" s="7"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -5726,7 +5717,7 @@
       <c r="G297" s="7"/>
       <c r="H297" s="7"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298" s="7"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -5736,7 +5727,7 @@
       <c r="G298" s="7"/>
       <c r="H298" s="7"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299" s="7"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -5746,7 +5737,7 @@
       <c r="G299" s="7"/>
       <c r="H299" s="7"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300" s="7"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -5756,7 +5747,7 @@
       <c r="G300" s="7"/>
       <c r="H300" s="7"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301" s="7"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -5766,7 +5757,7 @@
       <c r="G301" s="7"/>
       <c r="H301" s="7"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302" s="7"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -5776,7 +5767,7 @@
       <c r="G302" s="7"/>
       <c r="H302" s="7"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303" s="7"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -5786,7 +5777,7 @@
       <c r="G303" s="7"/>
       <c r="H303" s="7"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304" s="7"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -5796,7 +5787,7 @@
       <c r="G304" s="7"/>
       <c r="H304" s="7"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305" s="7"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -5806,7 +5797,7 @@
       <c r="G305" s="7"/>
       <c r="H305" s="7"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306" s="7"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -5816,7 +5807,7 @@
       <c r="G306" s="7"/>
       <c r="H306" s="7"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307" s="7"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -5826,7 +5817,7 @@
       <c r="G307" s="7"/>
       <c r="H307" s="7"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308" s="7"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -5836,7 +5827,7 @@
       <c r="G308" s="7"/>
       <c r="H308" s="7"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309" s="7"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -5846,7 +5837,7 @@
       <c r="G309" s="7"/>
       <c r="H309" s="7"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310" s="7"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -5856,7 +5847,7 @@
       <c r="G310" s="7"/>
       <c r="H310" s="7"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311" s="7"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -5866,7 +5857,7 @@
       <c r="G311" s="7"/>
       <c r="H311" s="7"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312" s="7"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -5876,7 +5867,7 @@
       <c r="G312" s="7"/>
       <c r="H312" s="7"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313" s="7"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -5886,7 +5877,7 @@
       <c r="G313" s="7"/>
       <c r="H313" s="7"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314" s="7"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -5896,7 +5887,7 @@
       <c r="G314" s="7"/>
       <c r="H314" s="7"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315" s="7"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -5906,7 +5897,7 @@
       <c r="G315" s="7"/>
       <c r="H315" s="7"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316" s="7"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -5916,7 +5907,7 @@
       <c r="G316" s="7"/>
       <c r="H316" s="7"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317" s="7"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -5926,7 +5917,7 @@
       <c r="G317" s="7"/>
       <c r="H317" s="7"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318" s="7"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -5936,7 +5927,7 @@
       <c r="G318" s="7"/>
       <c r="H318" s="7"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319" s="7"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -5946,7 +5937,7 @@
       <c r="G319" s="7"/>
       <c r="H319" s="7"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320" s="7"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -5956,7 +5947,7 @@
       <c r="G320" s="7"/>
       <c r="H320" s="7"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321" s="7"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -5966,7 +5957,7 @@
       <c r="G321" s="7"/>
       <c r="H321" s="7"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322" s="7"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -5976,7 +5967,7 @@
       <c r="G322" s="7"/>
       <c r="H322" s="7"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323" s="7"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -5986,7 +5977,7 @@
       <c r="G323" s="7"/>
       <c r="H323" s="7"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324" s="7"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -5996,7 +5987,7 @@
       <c r="G324" s="7"/>
       <c r="H324" s="7"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325" s="7"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -6006,7 +5997,7 @@
       <c r="G325" s="7"/>
       <c r="H325" s="7"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326" s="7"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -6016,7 +6007,7 @@
       <c r="G326" s="7"/>
       <c r="H326" s="7"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327" s="7"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -6026,7 +6017,7 @@
       <c r="G327" s="7"/>
       <c r="H327" s="7"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328" s="7"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -6036,7 +6027,7 @@
       <c r="G328" s="7"/>
       <c r="H328" s="7"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329" s="7"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -6046,7 +6037,7 @@
       <c r="G329" s="7"/>
       <c r="H329" s="7"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330" s="7"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -6056,7 +6047,7 @@
       <c r="G330" s="7"/>
       <c r="H330" s="7"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331" s="7"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -6066,7 +6057,7 @@
       <c r="G331" s="7"/>
       <c r="H331" s="7"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332" s="7"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -6076,7 +6067,7 @@
       <c r="G332" s="7"/>
       <c r="H332" s="7"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333" s="7"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -6086,7 +6077,7 @@
       <c r="G333" s="7"/>
       <c r="H333" s="7"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334" s="7"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -6096,7 +6087,7 @@
       <c r="G334" s="7"/>
       <c r="H334" s="7"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335" s="7"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -6106,7 +6097,7 @@
       <c r="G335" s="7"/>
       <c r="H335" s="7"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336" s="7"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -6116,7 +6107,7 @@
       <c r="G336" s="7"/>
       <c r="H336" s="7"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337" s="7"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -6126,7 +6117,7 @@
       <c r="G337" s="7"/>
       <c r="H337" s="7"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338" s="7"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -6136,7 +6127,7 @@
       <c r="G338" s="7"/>
       <c r="H338" s="7"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339" s="7"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -6146,7 +6137,7 @@
       <c r="G339" s="7"/>
       <c r="H339" s="7"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340" s="7"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -6156,7 +6147,7 @@
       <c r="G340" s="7"/>
       <c r="H340" s="7"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341" s="7"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -6166,7 +6157,7 @@
       <c r="G341" s="7"/>
       <c r="H341" s="7"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342" s="7"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -6176,7 +6167,7 @@
       <c r="G342" s="7"/>
       <c r="H342" s="7"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343" s="7"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -6186,7 +6177,7 @@
       <c r="G343" s="7"/>
       <c r="H343" s="7"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344" s="7"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -6196,7 +6187,7 @@
       <c r="G344" s="7"/>
       <c r="H344" s="7"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345" s="7"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -6206,7 +6197,7 @@
       <c r="G345" s="7"/>
       <c r="H345" s="7"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346" s="7"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -6216,7 +6207,7 @@
       <c r="G346" s="7"/>
       <c r="H346" s="7"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347" s="7"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -6226,7 +6217,7 @@
       <c r="G347" s="7"/>
       <c r="H347" s="7"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348" s="7"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -6236,7 +6227,7 @@
       <c r="G348" s="7"/>
       <c r="H348" s="7"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349" s="7"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -6246,7 +6237,7 @@
       <c r="G349" s="7"/>
       <c r="H349" s="7"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350" s="7"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -6256,7 +6247,7 @@
       <c r="G350" s="7"/>
       <c r="H350" s="7"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351" s="7"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -6266,7 +6257,7 @@
       <c r="G351" s="7"/>
       <c r="H351" s="7"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352" s="7"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -6276,7 +6267,7 @@
       <c r="G352" s="7"/>
       <c r="H352" s="7"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353" s="7"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -6286,7 +6277,7 @@
       <c r="G353" s="7"/>
       <c r="H353" s="7"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354" s="7"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -6296,7 +6287,7 @@
       <c r="G354" s="7"/>
       <c r="H354" s="7"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355" s="7"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -6306,7 +6297,7 @@
       <c r="G355" s="7"/>
       <c r="H355" s="7"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356" s="7"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -6316,7 +6307,7 @@
       <c r="G356" s="7"/>
       <c r="H356" s="7"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357" s="7"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -6326,7 +6317,7 @@
       <c r="G357" s="7"/>
       <c r="H357" s="7"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358" s="7"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -6336,7 +6327,7 @@
       <c r="G358" s="7"/>
       <c r="H358" s="7"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359" s="7"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -6346,7 +6337,7 @@
       <c r="G359" s="7"/>
       <c r="H359" s="7"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360" s="7"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -6356,7 +6347,7 @@
       <c r="G360" s="7"/>
       <c r="H360" s="7"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361" s="7"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -6366,7 +6357,7 @@
       <c r="G361" s="7"/>
       <c r="H361" s="7"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362" s="7"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -6376,7 +6367,7 @@
       <c r="G362" s="7"/>
       <c r="H362" s="7"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363" s="7"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -6386,7 +6377,7 @@
       <c r="G363" s="7"/>
       <c r="H363" s="7"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364" s="7"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -6396,7 +6387,7 @@
       <c r="G364" s="7"/>
       <c r="H364" s="7"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365" s="7"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -6406,7 +6397,7 @@
       <c r="G365" s="7"/>
       <c r="H365" s="7"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366" s="7"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -6416,7 +6407,7 @@
       <c r="G366" s="7"/>
       <c r="H366" s="7"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367" s="7"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -6426,7 +6417,7 @@
       <c r="G367" s="7"/>
       <c r="H367" s="7"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368" s="7"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -6436,7 +6427,7 @@
       <c r="G368" s="7"/>
       <c r="H368" s="7"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A369" s="7"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -6446,7 +6437,7 @@
       <c r="G369" s="7"/>
       <c r="H369" s="7"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A370" s="7"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -6456,7 +6447,7 @@
       <c r="G370" s="7"/>
       <c r="H370" s="7"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A371" s="7"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -6466,7 +6457,7 @@
       <c r="G371" s="7"/>
       <c r="H371" s="7"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A372" s="7"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -6476,7 +6467,7 @@
       <c r="G372" s="7"/>
       <c r="H372" s="7"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A373" s="7"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -6486,7 +6477,7 @@
       <c r="G373" s="7"/>
       <c r="H373" s="7"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A374" s="7"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -6496,7 +6487,7 @@
       <c r="G374" s="7"/>
       <c r="H374" s="7"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A375" s="7"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -6506,7 +6497,7 @@
       <c r="G375" s="7"/>
       <c r="H375" s="7"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A376" s="7"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -6516,7 +6507,7 @@
       <c r="G376" s="7"/>
       <c r="H376" s="7"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A377" s="7"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -6526,7 +6517,7 @@
       <c r="G377" s="7"/>
       <c r="H377" s="7"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A378" s="7"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -6536,7 +6527,7 @@
       <c r="G378" s="7"/>
       <c r="H378" s="7"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A379" s="7"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -6546,7 +6537,7 @@
       <c r="G379" s="7"/>
       <c r="H379" s="7"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A380" s="7"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -6556,7 +6547,7 @@
       <c r="G380" s="7"/>
       <c r="H380" s="7"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A381" s="7"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -6566,7 +6557,7 @@
       <c r="G381" s="7"/>
       <c r="H381" s="7"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A382" s="7"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -6576,7 +6567,7 @@
       <c r="G382" s="7"/>
       <c r="H382" s="7"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A383" s="7"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -6586,7 +6577,7 @@
       <c r="G383" s="7"/>
       <c r="H383" s="7"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A384" s="7"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -6596,7 +6587,7 @@
       <c r="G384" s="7"/>
       <c r="H384" s="7"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A385" s="7"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -6606,7 +6597,7 @@
       <c r="G385" s="7"/>
       <c r="H385" s="7"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A386" s="7"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -6616,7 +6607,7 @@
       <c r="G386" s="7"/>
       <c r="H386" s="7"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A387" s="7"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -6626,7 +6617,7 @@
       <c r="G387" s="7"/>
       <c r="H387" s="7"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A388" s="7"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -6636,7 +6627,7 @@
       <c r="G388" s="7"/>
       <c r="H388" s="7"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A389" s="7"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -6646,7 +6637,7 @@
       <c r="G389" s="7"/>
       <c r="H389" s="7"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A390" s="7"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -6656,7 +6647,7 @@
       <c r="G390" s="7"/>
       <c r="H390" s="7"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A391" s="7"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -6666,7 +6657,7 @@
       <c r="G391" s="7"/>
       <c r="H391" s="7"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A392" s="7"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -6676,7 +6667,7 @@
       <c r="G392" s="7"/>
       <c r="H392" s="7"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A393" s="7"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -6686,7 +6677,7 @@
       <c r="G393" s="7"/>
       <c r="H393" s="7"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A394" s="7"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -6696,7 +6687,7 @@
       <c r="G394" s="7"/>
       <c r="H394" s="7"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A395" s="7"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -6706,7 +6697,7 @@
       <c r="G395" s="7"/>
       <c r="H395" s="7"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A396" s="7"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -6716,7 +6707,7 @@
       <c r="G396" s="7"/>
       <c r="H396" s="7"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A397" s="7"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -6726,7 +6717,7 @@
       <c r="G397" s="7"/>
       <c r="H397" s="7"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A398" s="7"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -6736,7 +6727,7 @@
       <c r="G398" s="7"/>
       <c r="H398" s="7"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A399" s="7"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -6746,7 +6737,7 @@
       <c r="G399" s="7"/>
       <c r="H399" s="7"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A400" s="7"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -6756,7 +6747,7 @@
       <c r="G400" s="7"/>
       <c r="H400" s="7"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A401" s="7"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -6766,7 +6757,7 @@
       <c r="G401" s="7"/>
       <c r="H401" s="7"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A402" s="7"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -6776,7 +6767,7 @@
       <c r="G402" s="7"/>
       <c r="H402" s="7"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A403" s="7"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -6786,7 +6777,7 @@
       <c r="G403" s="7"/>
       <c r="H403" s="7"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A404" s="7"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -6796,7 +6787,7 @@
       <c r="G404" s="7"/>
       <c r="H404" s="7"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A405" s="7"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -6806,7 +6797,7 @@
       <c r="G405" s="7"/>
       <c r="H405" s="7"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A406" s="7"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -6816,7 +6807,7 @@
       <c r="G406" s="7"/>
       <c r="H406" s="7"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A407" s="7"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -6826,7 +6817,7 @@
       <c r="G407" s="7"/>
       <c r="H407" s="7"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A408" s="7"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -6836,7 +6827,7 @@
       <c r="G408" s="7"/>
       <c r="H408" s="7"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A409" s="7"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -6846,7 +6837,7 @@
       <c r="G409" s="7"/>
       <c r="H409" s="7"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A410" s="7"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -6856,7 +6847,7 @@
       <c r="G410" s="7"/>
       <c r="H410" s="7"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A411" s="7"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -6866,7 +6857,7 @@
       <c r="G411" s="7"/>
       <c r="H411" s="7"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A412" s="7"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -6876,7 +6867,7 @@
       <c r="G412" s="7"/>
       <c r="H412" s="7"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A413" s="7"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -6886,7 +6877,7 @@
       <c r="G413" s="7"/>
       <c r="H413" s="7"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A414" s="7"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -6896,7 +6887,7 @@
       <c r="G414" s="7"/>
       <c r="H414" s="7"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A415" s="7"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -6906,7 +6897,7 @@
       <c r="G415" s="7"/>
       <c r="H415" s="7"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A416" s="7"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -6916,7 +6907,7 @@
       <c r="G416" s="7"/>
       <c r="H416" s="7"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A417" s="7"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -6926,7 +6917,7 @@
       <c r="G417" s="7"/>
       <c r="H417" s="7"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A418" s="7"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -6936,7 +6927,7 @@
       <c r="G418" s="7"/>
       <c r="H418" s="7"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A419" s="7"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -6946,7 +6937,7 @@
       <c r="G419" s="7"/>
       <c r="H419" s="7"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A420" s="7"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -6956,7 +6947,7 @@
       <c r="G420" s="7"/>
       <c r="H420" s="7"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A421" s="7"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -6966,7 +6957,7 @@
       <c r="G421" s="7"/>
       <c r="H421" s="7"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A422" s="7"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -6976,7 +6967,7 @@
       <c r="G422" s="7"/>
       <c r="H422" s="7"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A423" s="7"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -6986,7 +6977,7 @@
       <c r="G423" s="7"/>
       <c r="H423" s="7"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A424" s="7"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -6996,7 +6987,7 @@
       <c r="G424" s="7"/>
       <c r="H424" s="7"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A425" s="7"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -7006,7 +6997,7 @@
       <c r="G425" s="7"/>
       <c r="H425" s="7"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A426" s="7"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -7016,7 +7007,7 @@
       <c r="G426" s="7"/>
       <c r="H426" s="7"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A427" s="7"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -7026,7 +7017,7 @@
       <c r="G427" s="7"/>
       <c r="H427" s="7"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A428" s="7"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -7036,7 +7027,7 @@
       <c r="G428" s="7"/>
       <c r="H428" s="7"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A429" s="7"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -7046,7 +7037,7 @@
       <c r="G429" s="7"/>
       <c r="H429" s="7"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A430" s="7"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -7056,7 +7047,7 @@
       <c r="G430" s="7"/>
       <c r="H430" s="7"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A431" s="7"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -7066,7 +7057,7 @@
       <c r="G431" s="7"/>
       <c r="H431" s="7"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A432" s="7"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -7076,7 +7067,7 @@
       <c r="G432" s="7"/>
       <c r="H432" s="7"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A433" s="7"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -7086,7 +7077,7 @@
       <c r="G433" s="7"/>
       <c r="H433" s="7"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A434" s="7"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -7096,7 +7087,7 @@
       <c r="G434" s="7"/>
       <c r="H434" s="7"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A435" s="7"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -7106,7 +7097,7 @@
       <c r="G435" s="7"/>
       <c r="H435" s="7"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A436" s="7"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -7116,7 +7107,7 @@
       <c r="G436" s="7"/>
       <c r="H436" s="7"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A437" s="7"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -7126,7 +7117,7 @@
       <c r="G437" s="7"/>
       <c r="H437" s="7"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A438" s="7"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -7136,7 +7127,7 @@
       <c r="G438" s="7"/>
       <c r="H438" s="7"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A439" s="7"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -7146,7 +7137,7 @@
       <c r="G439" s="7"/>
       <c r="H439" s="7"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A440" s="7"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -7156,7 +7147,7 @@
       <c r="G440" s="7"/>
       <c r="H440" s="7"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A441" s="7"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -7166,7 +7157,7 @@
       <c r="G441" s="7"/>
       <c r="H441" s="7"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A442" s="7"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -7176,7 +7167,7 @@
       <c r="G442" s="7"/>
       <c r="H442" s="7"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A443" s="7"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -7186,7 +7177,7 @@
       <c r="G443" s="7"/>
       <c r="H443" s="7"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A444" s="7"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -7196,7 +7187,7 @@
       <c r="G444" s="7"/>
       <c r="H444" s="7"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A445" s="7"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -7206,7 +7197,7 @@
       <c r="G445" s="7"/>
       <c r="H445" s="7"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A446" s="7"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -7216,7 +7207,7 @@
       <c r="G446" s="7"/>
       <c r="H446" s="7"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A447" s="7"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -7226,7 +7217,7 @@
       <c r="G447" s="7"/>
       <c r="H447" s="7"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A448" s="7"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -7236,7 +7227,7 @@
       <c r="G448" s="7"/>
       <c r="H448" s="7"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A449" s="7"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -7246,7 +7237,7 @@
       <c r="G449" s="7"/>
       <c r="H449" s="7"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A450" s="7"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -7256,7 +7247,7 @@
       <c r="G450" s="7"/>
       <c r="H450" s="7"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A451" s="7"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -7266,7 +7257,7 @@
       <c r="G451" s="7"/>
       <c r="H451" s="7"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A452" s="7"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -7276,7 +7267,7 @@
       <c r="G452" s="7"/>
       <c r="H452" s="7"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A453" s="7"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -7286,7 +7277,7 @@
       <c r="G453" s="7"/>
       <c r="H453" s="7"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A454" s="7"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -7296,7 +7287,7 @@
       <c r="G454" s="7"/>
       <c r="H454" s="7"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A455" s="7"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -7306,7 +7297,7 @@
       <c r="G455" s="7"/>
       <c r="H455" s="7"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A456" s="7"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -7316,7 +7307,7 @@
       <c r="G456" s="7"/>
       <c r="H456" s="7"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A457" s="7"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -7326,7 +7317,7 @@
       <c r="G457" s="7"/>
       <c r="H457" s="7"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A458" s="7"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -7336,7 +7327,7 @@
       <c r="G458" s="7"/>
       <c r="H458" s="7"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A459" s="7"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -7346,7 +7337,7 @@
       <c r="G459" s="7"/>
       <c r="H459" s="7"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A460" s="7"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -7356,7 +7347,7 @@
       <c r="G460" s="7"/>
       <c r="H460" s="7"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A461" s="7"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -7366,7 +7357,7 @@
       <c r="G461" s="7"/>
       <c r="H461" s="7"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A462" s="7"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -7376,7 +7367,7 @@
       <c r="G462" s="7"/>
       <c r="H462" s="7"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A463" s="7"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -7386,7 +7377,7 @@
       <c r="G463" s="7"/>
       <c r="H463" s="7"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A464" s="7"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -7396,7 +7387,7 @@
       <c r="G464" s="7"/>
       <c r="H464" s="7"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A465" s="7"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -7406,7 +7397,7 @@
       <c r="G465" s="7"/>
       <c r="H465" s="7"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A466" s="7"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -7416,7 +7407,7 @@
       <c r="G466" s="7"/>
       <c r="H466" s="7"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A467" s="7"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -7426,7 +7417,7 @@
       <c r="G467" s="7"/>
       <c r="H467" s="7"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A468" s="7"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -7436,7 +7427,7 @@
       <c r="G468" s="7"/>
       <c r="H468" s="7"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A469" s="7"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -7446,7 +7437,7 @@
       <c r="G469" s="7"/>
       <c r="H469" s="7"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A470" s="7"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -7456,7 +7447,7 @@
       <c r="G470" s="7"/>
       <c r="H470" s="7"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A471" s="7"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -7466,7 +7457,7 @@
       <c r="G471" s="7"/>
       <c r="H471" s="7"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A472" s="7"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -7476,7 +7467,7 @@
       <c r="G472" s="7"/>
       <c r="H472" s="7"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A473" s="7"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -7486,7 +7477,7 @@
       <c r="G473" s="7"/>
       <c r="H473" s="7"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A474" s="7"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -7496,7 +7487,7 @@
       <c r="G474" s="7"/>
       <c r="H474" s="7"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A475" s="7"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -7506,7 +7497,7 @@
       <c r="G475" s="7"/>
       <c r="H475" s="7"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A476" s="7"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -7516,7 +7507,7 @@
       <c r="G476" s="7"/>
       <c r="H476" s="7"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A477" s="7"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -7526,7 +7517,7 @@
       <c r="G477" s="7"/>
       <c r="H477" s="7"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A478" s="7"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -7536,7 +7527,7 @@
       <c r="G478" s="7"/>
       <c r="H478" s="7"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A479" s="7"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -7546,7 +7537,7 @@
       <c r="G479" s="7"/>
       <c r="H479" s="7"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A480" s="7"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -7556,7 +7547,7 @@
       <c r="G480" s="7"/>
       <c r="H480" s="7"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A481" s="7"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -7566,7 +7557,7 @@
       <c r="G481" s="7"/>
       <c r="H481" s="7"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A482" s="7"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -7576,7 +7567,7 @@
       <c r="G482" s="7"/>
       <c r="H482" s="7"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A483" s="7"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -7586,7 +7577,7 @@
       <c r="G483" s="7"/>
       <c r="H483" s="7"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A484" s="7"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -7596,7 +7587,7 @@
       <c r="G484" s="7"/>
       <c r="H484" s="7"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A485" s="7"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -7606,7 +7597,7 @@
       <c r="G485" s="7"/>
       <c r="H485" s="7"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A486" s="7"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -7616,7 +7607,7 @@
       <c r="G486" s="7"/>
       <c r="H486" s="7"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A487" s="7"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -7626,7 +7617,7 @@
       <c r="G487" s="7"/>
       <c r="H487" s="7"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A488" s="7"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -7636,7 +7627,7 @@
       <c r="G488" s="7"/>
       <c r="H488" s="7"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A489" s="7"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -7646,7 +7637,7 @@
       <c r="G489" s="7"/>
       <c r="H489" s="7"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A490" s="7"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -7656,7 +7647,7 @@
       <c r="G490" s="7"/>
       <c r="H490" s="7"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A491" s="7"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -7666,7 +7657,7 @@
       <c r="G491" s="7"/>
       <c r="H491" s="7"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A492" s="7"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -7676,7 +7667,7 @@
       <c r="G492" s="7"/>
       <c r="H492" s="7"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A493" s="7"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -7686,7 +7677,7 @@
       <c r="G493" s="7"/>
       <c r="H493" s="7"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A494" s="7"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -7696,7 +7687,7 @@
       <c r="G494" s="7"/>
       <c r="H494" s="7"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A495" s="7"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -7706,7 +7697,7 @@
       <c r="G495" s="7"/>
       <c r="H495" s="7"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A496" s="7"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -7716,7 +7707,7 @@
       <c r="G496" s="7"/>
       <c r="H496" s="7"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A497" s="7"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -7726,7 +7717,7 @@
       <c r="G497" s="7"/>
       <c r="H497" s="7"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A498" s="7"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -7736,7 +7727,7 @@
       <c r="G498" s="7"/>
       <c r="H498" s="7"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A499" s="7"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -7746,7 +7737,7 @@
       <c r="G499" s="7"/>
       <c r="H499" s="7"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A500" s="7"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -7756,7 +7747,7 @@
       <c r="G500" s="7"/>
       <c r="H500" s="7"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A501" s="7"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -7766,7 +7757,7 @@
       <c r="G501" s="7"/>
       <c r="H501" s="7"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A502" s="7"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -7776,7 +7767,7 @@
       <c r="G502" s="7"/>
       <c r="H502" s="7"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A503" s="7"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -7786,7 +7777,7 @@
       <c r="G503" s="7"/>
       <c r="H503" s="7"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A504" s="7"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -7796,7 +7787,7 @@
       <c r="G504" s="7"/>
       <c r="H504" s="7"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A505" s="7"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -7806,7 +7797,7 @@
       <c r="G505" s="7"/>
       <c r="H505" s="7"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A506" s="7"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -7816,7 +7807,7 @@
       <c r="G506" s="7"/>
       <c r="H506" s="7"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A507" s="7"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -7826,7 +7817,7 @@
       <c r="G507" s="7"/>
       <c r="H507" s="7"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A508" s="7"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -7836,7 +7827,7 @@
       <c r="G508" s="7"/>
       <c r="H508" s="7"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A509" s="7"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -7846,7 +7837,7 @@
       <c r="G509" s="7"/>
       <c r="H509" s="7"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A510" s="7"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -7856,7 +7847,7 @@
       <c r="G510" s="7"/>
       <c r="H510" s="7"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A511" s="7"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -7866,7 +7857,7 @@
       <c r="G511" s="7"/>
       <c r="H511" s="7"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A512" s="7"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -7876,7 +7867,7 @@
       <c r="G512" s="7"/>
       <c r="H512" s="7"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A513" s="7"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -7886,7 +7877,7 @@
       <c r="G513" s="7"/>
       <c r="H513" s="7"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A514" s="7"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -7896,7 +7887,7 @@
       <c r="G514" s="7"/>
       <c r="H514" s="7"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A515" s="7"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -7906,7 +7897,7 @@
       <c r="G515" s="7"/>
       <c r="H515" s="7"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A516" s="7"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -7916,7 +7907,7 @@
       <c r="G516" s="7"/>
       <c r="H516" s="7"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A517" s="7"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -7926,7 +7917,7 @@
       <c r="G517" s="7"/>
       <c r="H517" s="7"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A518" s="7"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -7936,7 +7927,7 @@
       <c r="G518" s="7"/>
       <c r="H518" s="7"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A519" s="7"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -7946,7 +7937,7 @@
       <c r="G519" s="7"/>
       <c r="H519" s="7"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A520" s="7"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -7956,7 +7947,7 @@
       <c r="G520" s="7"/>
       <c r="H520" s="7"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A521" s="7"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -7966,7 +7957,7 @@
       <c r="G521" s="7"/>
       <c r="H521" s="7"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A522" s="7"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -7976,7 +7967,7 @@
       <c r="G522" s="7"/>
       <c r="H522" s="7"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A523" s="7"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -7986,7 +7977,7 @@
       <c r="G523" s="7"/>
       <c r="H523" s="7"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A524" s="7"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -7996,7 +7987,7 @@
       <c r="G524" s="7"/>
       <c r="H524" s="7"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A525" s="7"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -8006,7 +7997,7 @@
       <c r="G525" s="7"/>
       <c r="H525" s="7"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A526" s="7"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -8016,7 +8007,7 @@
       <c r="G526" s="7"/>
       <c r="H526" s="7"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A527" s="7"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -8026,7 +8017,7 @@
       <c r="G527" s="7"/>
       <c r="H527" s="7"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A528" s="7"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -8036,7 +8027,7 @@
       <c r="G528" s="7"/>
       <c r="H528" s="7"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A529" s="7"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -8046,7 +8037,7 @@
       <c r="G529" s="7"/>
       <c r="H529" s="7"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A530" s="7"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -8056,7 +8047,7 @@
       <c r="G530" s="7"/>
       <c r="H530" s="7"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A531" s="7"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -8066,7 +8057,7 @@
       <c r="G531" s="7"/>
       <c r="H531" s="7"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A532" s="7"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -8076,7 +8067,7 @@
       <c r="G532" s="7"/>
       <c r="H532" s="7"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A533" s="7"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -8086,7 +8077,7 @@
       <c r="G533" s="7"/>
       <c r="H533" s="7"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A534" s="7"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -8096,7 +8087,7 @@
       <c r="G534" s="7"/>
       <c r="H534" s="7"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A535" s="7"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -8106,7 +8097,7 @@
       <c r="G535" s="7"/>
       <c r="H535" s="7"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A536" s="7"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -8116,7 +8107,7 @@
       <c r="G536" s="7"/>
       <c r="H536" s="7"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A537" s="7"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -8126,7 +8117,7 @@
       <c r="G537" s="7"/>
       <c r="H537" s="7"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A538" s="7"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -8136,7 +8127,7 @@
       <c r="G538" s="7"/>
       <c r="H538" s="7"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A539" s="7"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -8146,7 +8137,7 @@
       <c r="G539" s="7"/>
       <c r="H539" s="7"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A540" s="7"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -8156,7 +8147,7 @@
       <c r="G540" s="7"/>
       <c r="H540" s="7"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A541" s="7"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -8166,7 +8157,7 @@
       <c r="G541" s="7"/>
       <c r="H541" s="7"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A542" s="7"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -8176,7 +8167,7 @@
       <c r="G542" s="7"/>
       <c r="H542" s="7"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A543" s="7"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -8186,7 +8177,7 @@
       <c r="G543" s="7"/>
       <c r="H543" s="7"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A544" s="7"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -8196,7 +8187,7 @@
       <c r="G544" s="7"/>
       <c r="H544" s="7"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A545" s="7"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -8206,7 +8197,7 @@
       <c r="G545" s="7"/>
       <c r="H545" s="7"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A546" s="7"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -8216,7 +8207,7 @@
       <c r="G546" s="7"/>
       <c r="H546" s="7"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A547" s="7"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -8226,7 +8217,7 @@
       <c r="G547" s="7"/>
       <c r="H547" s="7"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A548" s="7"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -8236,7 +8227,7 @@
       <c r="G548" s="7"/>
       <c r="H548" s="7"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A549" s="7"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -8246,7 +8237,7 @@
       <c r="G549" s="7"/>
       <c r="H549" s="7"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A550" s="7"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -8256,7 +8247,7 @@
       <c r="G550" s="7"/>
       <c r="H550" s="7"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A551" s="7"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -8266,7 +8257,7 @@
       <c r="G551" s="7"/>
       <c r="H551" s="7"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A552" s="7"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -8276,7 +8267,7 @@
       <c r="G552" s="7"/>
       <c r="H552" s="7"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A553" s="7"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -8286,7 +8277,7 @@
       <c r="G553" s="7"/>
       <c r="H553" s="7"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A554" s="7"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -8296,7 +8287,7 @@
       <c r="G554" s="7"/>
       <c r="H554" s="7"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A555" s="7"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -8306,7 +8297,7 @@
       <c r="G555" s="7"/>
       <c r="H555" s="7"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A556" s="7"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -8316,7 +8307,7 @@
       <c r="G556" s="7"/>
       <c r="H556" s="7"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A557" s="7"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -8326,7 +8317,7 @@
       <c r="G557" s="7"/>
       <c r="H557" s="7"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A558" s="7"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -8336,7 +8327,7 @@
       <c r="G558" s="7"/>
       <c r="H558" s="7"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A559" s="7"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -8346,7 +8337,7 @@
       <c r="G559" s="7"/>
       <c r="H559" s="7"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A560" s="7"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -8356,7 +8347,7 @@
       <c r="G560" s="7"/>
       <c r="H560" s="7"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A561" s="7"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -8366,7 +8357,7 @@
       <c r="G561" s="7"/>
       <c r="H561" s="7"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A562" s="7"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -8376,7 +8367,7 @@
       <c r="G562" s="7"/>
       <c r="H562" s="7"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A563" s="7"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -8386,7 +8377,7 @@
       <c r="G563" s="7"/>
       <c r="H563" s="7"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A564" s="7"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -8396,7 +8387,7 @@
       <c r="G564" s="7"/>
       <c r="H564" s="7"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A565" s="7"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -8406,7 +8397,7 @@
       <c r="G565" s="7"/>
       <c r="H565" s="7"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A566" s="7"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -8416,7 +8407,7 @@
       <c r="G566" s="7"/>
       <c r="H566" s="7"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A567" s="7"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -8426,7 +8417,7 @@
       <c r="G567" s="7"/>
       <c r="H567" s="7"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A568" s="7"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -8436,7 +8427,7 @@
       <c r="G568" s="7"/>
       <c r="H568" s="7"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A569" s="7"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -8446,7 +8437,7 @@
       <c r="G569" s="7"/>
       <c r="H569" s="7"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A570" s="7"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -8458,32 +8449,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="25.5" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="14" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="13.1640625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+    <col min="5" max="5" width="13.1640625" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -8502,68 +8492,68 @@
       <c r="F1" s="11"/>
       <c r="G1" s="11"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>50</v>
-      </c>
       <c r="C2" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D2" s="11" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" s="11">
         <v>0.24</v>
       </c>
       <c r="E2" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>51</v>
-      </c>
       <c r="C3" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D3" s="11" t="n">
+        <v>57</v>
+      </c>
+      <c r="D3" s="11">
         <v>0.23</v>
       </c>
       <c r="E3" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D4" s="11" t="n">
+        <v>55</v>
+      </c>
+      <c r="D4" s="11">
         <v>0.26</v>
       </c>
       <c r="E4" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D5" s="11" t="n">
+        <v>56</v>
+      </c>
+      <c r="D5" s="11">
         <v>0.27</v>
       </c>
       <c r="E5" s="11" t="b">
@@ -8572,30 +8562,29 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="25.5" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -8611,114 +8600,111 @@
       <c r="E1" s="11"/>
       <c r="F1" s="11"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D5" s="11"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="D16" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:J59"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.5" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="25.5" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="25.6640625" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="25.6640625" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="25.6640625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="20" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="25.5" customWidth="1"/>
+    <col min="3" max="3" width="36.1640625" customWidth="1"/>
+    <col min="4" max="6" width="25.6640625" customWidth="1"/>
+    <col min="7" max="7" width="20" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>7</v>
       </c>
@@ -8729,92 +8715,92 @@
         <v>8</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C2" t="s">
-        <v>72</v>
-      </c>
-      <c r="D2" t="n">
+        <v>70</v>
+      </c>
+      <c r="D2">
         <v>1</v>
       </c>
       <c r="F2" t="b">
         <v>0</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="11">
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>71</v>
-      </c>
-      <c r="D3" t="n">
+        <v>69</v>
+      </c>
+      <c r="D3">
         <v>0</v>
       </c>
       <c r="F3" t="b">
         <v>0</v>
       </c>
-      <c r="G3" s="11" t="n">
+      <c r="G3" s="11">
         <v>12</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>73</v>
-      </c>
-      <c r="D4" t="n">
+        <v>71</v>
+      </c>
+      <c r="D4">
         <v>0</v>
       </c>
-      <c r="G4" s="11" t="n">
+      <c r="G4" s="11">
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>16</v>
@@ -8822,218 +8808,216 @@
       <c r="C5" t="s">
         <v>16</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5" s="11" t="n">
+      <c r="G5" s="11">
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G7" s="11"/>
       <c r="H7" s="11"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G8" s="11"/>
       <c r="H8" s="11"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G9" s="11"/>
       <c r="H9" s="11"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G10" s="11"/>
       <c r="H10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G11" s="11"/>
       <c r="H11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G12" s="11"/>
       <c r="H12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G13" s="11"/>
       <c r="H13" s="11"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G14" s="11"/>
       <c r="H14" s="11"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G15" s="11"/>
       <c r="H15" s="11"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G16" s="11"/>
       <c r="H16" s="11"/>
     </row>
-    <row r="17">
+    <row r="17" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H17" s="11"/>
     </row>
-    <row r="18">
+    <row r="18" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H18" s="11"/>
     </row>
-    <row r="19">
+    <row r="19" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H19" s="11"/>
     </row>
-    <row r="20">
+    <row r="20" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H20" s="11"/>
     </row>
-    <row r="21">
+    <row r="21" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H21" s="11"/>
     </row>
-    <row r="22">
+    <row r="22" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H22" s="11"/>
     </row>
-    <row r="23">
+    <row r="23" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H23" s="11"/>
     </row>
-    <row r="24">
+    <row r="24" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H24" s="11"/>
     </row>
-    <row r="25">
+    <row r="25" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H25" s="11"/>
     </row>
-    <row r="26">
+    <row r="26" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H26" s="11"/>
     </row>
-    <row r="27">
+    <row r="27" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H27" s="11"/>
     </row>
-    <row r="28">
+    <row r="28" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H28" s="11"/>
     </row>
-    <row r="29">
+    <row r="29" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H29" s="11"/>
     </row>
-    <row r="30">
+    <row r="30" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H30" s="11"/>
     </row>
-    <row r="31">
+    <row r="31" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H31" s="11"/>
     </row>
-    <row r="32">
+    <row r="32" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H32" s="11"/>
     </row>
-    <row r="33">
+    <row r="33" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H33" s="11"/>
     </row>
-    <row r="34">
+    <row r="34" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H34" s="11"/>
     </row>
-    <row r="35">
+    <row r="35" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H35" s="11"/>
     </row>
-    <row r="36">
+    <row r="36" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H36" s="11"/>
     </row>
-    <row r="37">
+    <row r="37" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H37" s="11"/>
     </row>
-    <row r="38">
+    <row r="38" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H38" s="11"/>
     </row>
-    <row r="39">
+    <row r="39" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H39" s="11"/>
     </row>
-    <row r="40">
+    <row r="40" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H40" s="11"/>
     </row>
-    <row r="41">
+    <row r="41" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H41" s="11"/>
     </row>
-    <row r="42">
+    <row r="42" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H42" s="11"/>
     </row>
-    <row r="43">
+    <row r="43" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H43" s="11"/>
     </row>
-    <row r="44">
+    <row r="44" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H44" s="11"/>
     </row>
-    <row r="45">
+    <row r="45" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H45" s="11"/>
     </row>
-    <row r="46">
+    <row r="46" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H46" s="11"/>
     </row>
-    <row r="47">
+    <row r="47" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H47" s="11"/>
     </row>
-    <row r="48">
+    <row r="48" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H48" s="11"/>
     </row>
-    <row r="49">
+    <row r="49" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H49" s="11"/>
     </row>
-    <row r="50">
+    <row r="50" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H50" s="11"/>
     </row>
-    <row r="51">
+    <row r="51" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H51" s="11"/>
     </row>
-    <row r="52">
+    <row r="52" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H52" s="11"/>
     </row>
-    <row r="53">
+    <row r="53" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H53" s="11"/>
     </row>
-    <row r="54">
+    <row r="54" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H54" s="11"/>
     </row>
-    <row r="55">
+    <row r="55" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H55" s="11"/>
     </row>
-    <row r="56">
+    <row r="56" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H56" s="11"/>
     </row>
-    <row r="57">
+    <row r="57" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H57" s="11"/>
     </row>
-    <row r="58">
+    <row r="58" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H58" s="11"/>
     </row>
-    <row r="59">
+    <row r="59" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H59" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="false" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="43.5" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="43.5" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="35.33203125" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="35.33203125" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="89" hidden="0" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" customWidth="1"/>
+    <col min="3" max="4" width="43.5" customWidth="1"/>
+    <col min="5" max="6" width="35.33203125" customWidth="1"/>
+    <col min="7" max="7" width="89" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>7</v>
       </c>
@@ -9044,219 +9028,218 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="D2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G2" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="B2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" t="s">
+        <v>157</v>
+      </c>
+      <c r="E4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" t="s">
         <v>130</v>
       </c>
-      <c r="D2" t="s">
-        <v>160</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="C5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>184</v>
+      </c>
+      <c r="B6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D6" t="s">
+        <v>157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>65</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>185</v>
+      </c>
+      <c r="B7" t="s">
+        <v>130</v>
+      </c>
+      <c r="C7" t="s">
+        <v>130</v>
+      </c>
+      <c r="D7" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" t="s">
         <v>66</v>
       </c>
-      <c r="G2" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B3" t="s">
-        <v>129</v>
-      </c>
-      <c r="C3" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" t="s">
-        <v>160</v>
-      </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B4" t="s">
-        <v>129</v>
-      </c>
-      <c r="C4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D4" t="s">
-        <v>160</v>
-      </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" t="s">
-        <v>133</v>
-      </c>
-      <c r="C5" t="s">
-        <v>133</v>
-      </c>
-      <c r="D5" t="s">
-        <v>160</v>
-      </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" t="s">
-        <v>133</v>
-      </c>
-      <c r="C6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>132</v>
-      </c>
-      <c r="B7" t="s">
-        <v>133</v>
-      </c>
-      <c r="C7" t="s">
-        <v>133</v>
-      </c>
-      <c r="D7" t="s">
-        <v>160</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="11" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
+      <c r="G8" s="11" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>154</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B9" t="s">
         <v>155</v>
       </c>
-      <c r="C8" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" t="s">
-        <v>161</v>
-      </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F8" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="11" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>158</v>
       </c>
-      <c r="D9" t="s">
-        <v>161</v>
-      </c>
-      <c r="G9" s="11" t="n">
+      <c r="G9" s="11">
         <v>100</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G10" s="11"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G11" s="11"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G12" s="11"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="G13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId9"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.1640625" hidden="0" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" hidden="0" customWidth="1"/>
-    <col min="3" max="3" width="34.33203125" hidden="0" customWidth="1"/>
-    <col min="4" max="4" width="29" hidden="0" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" hidden="0" customWidth="1"/>
-    <col min="6" max="6" width="36.1640625" hidden="0" customWidth="1"/>
-    <col min="7" max="7" width="29.83203125" hidden="0" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" hidden="0" customWidth="1"/>
-    <col min="9" max="9" width="25.5" hidden="0" customWidth="1"/>
-    <col min="10" max="10" width="36.1640625" hidden="0" customWidth="1"/>
+    <col min="1" max="2" width="17.1640625" customWidth="1"/>
+    <col min="3" max="3" width="34.33203125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="36.1640625" customWidth="1"/>
+    <col min="7" max="7" width="29.83203125" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" customWidth="1"/>
+    <col min="9" max="9" width="25.5" customWidth="1"/>
+    <col min="10" max="10" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -9267,16 +9250,16 @@
         <v>8</v>
       </c>
       <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>109</v>
+      </c>
+      <c r="G1" t="s">
         <v>27</v>
-      </c>
-      <c r="E1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>111</v>
-      </c>
-      <c r="G1" t="s">
-        <v>29</v>
       </c>
       <c r="H1" t="s">
         <v>10</v>
@@ -9284,348 +9267,425 @@
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F3" t="s">
         <v>40</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D5" t="s">
+        <v>84</v>
+      </c>
+      <c r="E5" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+      <c r="H5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
         <v>43</v>
       </c>
-      <c r="H2" t="s">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>106</v>
+      </c>
+      <c r="H8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" t="s">
+        <v>111</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4" t="s">
-        <v>112</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G4" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s">
-        <v>85</v>
-      </c>
-      <c r="G5" t="s">
-        <v>106</v>
-      </c>
-      <c r="H5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" t="s">
-        <v>112</v>
-      </c>
-      <c r="C6" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" t="s">
-        <v>107</v>
-      </c>
-      <c r="H6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>47</v>
-      </c>
-      <c r="B7" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="H7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" t="s">
-        <v>34</v>
-      </c>
-      <c r="E8" t="s">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s">
-        <v>37</v>
-      </c>
-      <c r="G8" t="s">
-        <v>108</v>
-      </c>
-      <c r="H8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" t="s">
-        <v>112</v>
-      </c>
-      <c r="C9" t="s">
-        <v>113</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>32</v>
-      </c>
-      <c r="F9" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106C64-597A-1343-B5D7-D61DA8E9983B}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>162</v>
-      </c>
-      <c r="B1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>174</v>
+      </c>
+      <c r="D2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>130</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>130</v>
+      </c>
+      <c r="D3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>177</v>
       </c>
       <c r="B4" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>165</v>
-      </c>
-      <c r="B5" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>167</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>167</v>
-      </c>
-      <c r="B7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>167</v>
-      </c>
-      <c r="B8" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>168</v>
-      </c>
-      <c r="B9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>168</v>
-      </c>
-      <c r="B10" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>169</v>
-      </c>
-      <c r="C11" t="s">
-        <v>174</v>
+        <v>178</v>
+      </c>
+      <c r="D4" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>164</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>165</v>
+      </c>
+      <c r="B9" t="s">
+        <v>165</v>
+      </c>
+      <c r="C9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>166</v>
+      </c>
+      <c r="B11" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+</worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{2d40fa44-05dd-4301-91b0-81b668a97c30}" enabled="1" method="Standard" siteId="{4a33c544-865e-44a4-836f-bc51800f6c5e}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92CA17FD-B2F0-2E4A-A5B0-F2F98C88E259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5B25F-C32C-344E-BFC8-EBF40A5EDA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -555,21 +555,12 @@
     <t>Life-years</t>
   </si>
   <si>
-    <t>init_lys, hsct_lys, post_hsct_lys, l1_maint_lys, l2_rescue_lys, l2_maint_lys, palliative_lys</t>
-  </si>
-  <si>
-    <t>init_qalys, hsct_qalys, post_hsct_qalys, l1_maint_qalys, l2_rescue_qalys, l2_maint_qalys, palliative_qalys, ae_qalys</t>
-  </si>
-  <si>
     <t>costs</t>
   </si>
   <si>
     <t>Total Costs</t>
   </si>
   <si>
-    <t>cost_ae, cost_routine_init, cost_routine_l1m, cost_routine_l2r, cost_routine_l2m, cost_routine_hsct, cost_routine_psthsct, cost_routine_pall, cost_med_init, cost_med_l1m, cost_med_l2r, cost_med_l2m, cost_med_post_hsct, cost_hsct</t>
-  </si>
-  <si>
     <t>rf_on_lys</t>
   </si>
   <si>
@@ -586,6 +577,15 @@
   </si>
   <si>
     <t>rel_qalys</t>
+  </si>
+  <si>
+    <t>rf_on_lys, rf_off_lys, rel_lys</t>
+  </si>
+  <si>
+    <t>rf_on_qalys, rf_off_qalys, rel_qalys</t>
+  </si>
+  <si>
+    <t>term_cost, start_cost</t>
   </si>
 </sst>
 </file>
@@ -806,7 +806,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -849,6 +849,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -9004,8 +9007,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9042,7 +9045,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B2" t="s">
         <v>126</v>
@@ -9062,7 +9065,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s">
         <v>126</v>
@@ -9082,7 +9085,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B4" t="s">
         <v>126</v>
@@ -9102,7 +9105,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s">
         <v>130</v>
@@ -9122,7 +9125,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B6" t="s">
         <v>130</v>
@@ -9142,7 +9145,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B7" t="s">
         <v>130</v>
@@ -9482,8 +9485,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106C64-597A-1343-B5D7-D61DA8E9983B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9502,7 +9505,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="52" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>173</v>
       </c>
@@ -9512,8 +9515,8 @@
       <c r="C2" t="s">
         <v>174</v>
       </c>
-      <c r="D2" t="s">
-        <v>175</v>
+      <c r="D2" s="17" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -9527,21 +9530,21 @@
         <v>130</v>
       </c>
       <c r="D3" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D4" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
   </sheetData>

--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10921"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B5B25F-C32C-344E-BFC8-EBF40A5EDA36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCED58A-A919-434F-AA54-D863E75826A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
   <si>
     <t>timeframe</t>
   </si>
@@ -249,12 +249,6 @@
     <t>sex</t>
   </si>
   <si>
-    <t>Starting Age</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
     <t>Age of patient at start of model</t>
   </si>
   <si>
@@ -288,15 +282,6 @@
     <t>p_death_ae</t>
   </si>
   <si>
-    <t>Probability of fatal AE</t>
-  </si>
-  <si>
-    <t>Probability of relapse</t>
-  </si>
-  <si>
-    <t>Probability of discontinuation</t>
-  </si>
-  <si>
     <t>Probability of experiencing a relapse, per week</t>
   </si>
   <si>
@@ -408,12 +393,6 @@
     <t>state</t>
   </si>
   <si>
-    <t>Life-Years</t>
-  </si>
-  <si>
-    <t>Life Years</t>
-  </si>
-  <si>
     <t>cycle_length_years</t>
   </si>
   <si>
@@ -423,105 +402,87 @@
     <t>QALYs</t>
   </si>
   <si>
-    <t>lys * 0.6</t>
-  </si>
-  <si>
-    <t>p_relapse_alt</t>
-  </si>
-  <si>
-    <t>dfdf</t>
-  </si>
-  <si>
-    <t>p_relapse * 0.7</t>
+    <t>state_group</t>
+  </si>
+  <si>
+    <t>share_state_time</t>
+  </si>
+  <si>
+    <t>normal(bc, bc * 0.25)</t>
+  </si>
+  <si>
+    <t>cost_nausea</t>
+  </si>
+  <si>
+    <t>Nausea, Cost per Event</t>
+  </si>
+  <si>
+    <t>eq5d_model</t>
+  </si>
+  <si>
+    <t>EQ-5D linear model</t>
+  </si>
+  <si>
+    <t>eq5d_data</t>
+  </si>
+  <si>
+    <t>EQ-5D data</t>
+  </si>
+  <si>
+    <t>eq5d</t>
+  </si>
+  <si>
+    <t>bootstrap(bc, id = "id", strata = "treatment")</t>
+  </si>
+  <si>
+    <t>lm(value~treatment+state, data = eq5d_data)</t>
+  </si>
+  <si>
+    <t>days_per_year</t>
+  </si>
+  <si>
+    <t>destination</t>
+  </si>
+  <si>
+    <t>term_cost</t>
+  </si>
+  <si>
+    <t>Terminal Care Cost</t>
+  </si>
+  <si>
+    <t>state_day + 3500</t>
+  </si>
+  <si>
+    <t>start_cost</t>
+  </si>
+  <si>
+    <t>Starting cost</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>outcome</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>from_state</t>
+  </si>
+  <si>
+    <t>to_state</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>relapse_free_on_tx</t>
   </si>
   <si>
     <t>ifelse(state_cycle &gt; 3, 0.2, 0.3)</t>
   </si>
   <si>
-    <t>ifelse(state_cycle &gt; 5, 0.2, 0.3)</t>
-  </si>
-  <si>
-    <t>state_group</t>
-  </si>
-  <si>
-    <t>share_state_time</t>
-  </si>
-  <si>
-    <t>normal(bc, bc * 0.25)</t>
-  </si>
-  <si>
-    <t>cost_nausea</t>
-  </si>
-  <si>
-    <t>Nausea, Cost per Event</t>
-  </si>
-  <si>
-    <t>eq5d_model</t>
-  </si>
-  <si>
-    <t>EQ-5D linear model</t>
-  </si>
-  <si>
-    <t>eq5d_data</t>
-  </si>
-  <si>
-    <t>EQ-5D data</t>
-  </si>
-  <si>
-    <t>eq5d</t>
-  </si>
-  <si>
-    <t>bootstrap(bc, id = "id", strata = "treatment")</t>
-  </si>
-  <si>
-    <t>lm(value~treatment+state, data = eq5d_data)</t>
-  </si>
-  <si>
-    <t>days_per_year</t>
-  </si>
-  <si>
-    <t>destination</t>
-  </si>
-  <si>
-    <t>term_cost</t>
-  </si>
-  <si>
-    <t>Terminal Care Cost</t>
-  </si>
-  <si>
-    <t>state_day + 3500</t>
-  </si>
-  <si>
-    <t>start_cost</t>
-  </si>
-  <si>
-    <t>Starting cost</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>outcome</t>
-  </si>
-  <si>
-    <t>cost</t>
-  </si>
-  <si>
-    <t>from_state</t>
-  </si>
-  <si>
-    <t>to_state</t>
-  </si>
-  <si>
-    <t>formula</t>
-  </si>
-  <si>
-    <t>relapse_free_on_tx</t>
-  </si>
-  <si>
-    <t>ifelse(state_cycle &gt; 3, 0.2, 0.3)</t>
-  </si>
-  <si>
     <t>relapse_free_off_tx</t>
   </si>
   <si>
@@ -586,6 +547,75 @@
   </si>
   <si>
     <t>term_cost, start_cost</t>
+  </si>
+  <si>
+    <t>ifelse(state_cycle &gt; 3, 0.2, 0.3) * cycle_length_years</t>
+  </si>
+  <si>
+    <t>ifelse(state_cycle &gt; 5, 0.2, 0.3) * cycle_length_years</t>
+  </si>
+  <si>
+    <t>0.6 * cycle_length_years</t>
+  </si>
+  <si>
+    <t>Starting Age, Men Under 35</t>
+  </si>
+  <si>
+    <t>Starting Age, Men 35+</t>
+  </si>
+  <si>
+    <t>Starting Age, Women Under 35</t>
+  </si>
+  <si>
+    <t>Starting Age, Women 35+</t>
+  </si>
+  <si>
+    <t>p(Fatal AE), Chemo</t>
+  </si>
+  <si>
+    <t>p(Fatal AE), Target</t>
+  </si>
+  <si>
+    <t>p(Fatal AE), Check</t>
+  </si>
+  <si>
+    <t>p(Relapse), Chemo</t>
+  </si>
+  <si>
+    <t>p(Relapse), Target</t>
+  </si>
+  <si>
+    <t>p(Relapse), Check</t>
+  </si>
+  <si>
+    <t>p(Discontinuation), Chemo</t>
+  </si>
+  <si>
+    <t>p(Discontinuation), Target</t>
+  </si>
+  <si>
+    <t>p(Discontinuation), Check</t>
+  </si>
+  <si>
+    <t>Relapse-Free On-Tx QALYs</t>
+  </si>
+  <si>
+    <t>Relapse-Free Off-Tx QALYs</t>
+  </si>
+  <si>
+    <t>Relapse QALYs</t>
+  </si>
+  <si>
+    <t>Initial Cost</t>
+  </si>
+  <si>
+    <t>Relapse-Free On-Tx LYs</t>
+  </si>
+  <si>
+    <t>Relapse-Free Off-Tx LYs</t>
+  </si>
+  <si>
+    <t>Relapse LYs</t>
   </si>
 </sst>
 </file>
@@ -1954,8 +1984,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H570" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
-  <autoFilter ref="A1:H570" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A864B13E-9722-6C40-BC17-06B0EC44FC76}" name="Table1" displayName="Table1" ref="A1:H569" totalsRowShown="0" headerRowDxfId="46" dataDxfId="45" tableBorderDxfId="44">
+  <autoFilter ref="A1:H569" xr:uid="{3D81EAC8-05DA-D049-B501-1CD472FC6154}"/>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{C5331D5E-A656-7D47-8018-7642F10E6CA8}" name="name" dataDxfId="43"/>
     <tableColumn id="2" xr3:uid="{FEA74BC7-2D0A-FF42-8C35-D063305661C6}" name="display_name" dataDxfId="42"/>
@@ -2371,10 +2401,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -2406,7 +2436,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -2435,7 +2465,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B10" s="4" t="b">
         <v>1</v>
@@ -2443,7 +2473,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="B11" s="4">
         <v>365</v>
@@ -2460,10 +2490,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H570"/>
+  <dimension ref="A1:H569"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2509,10 +2539,10 @@
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="C2" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="7" t="s">
@@ -2522,7 +2552,7 @@
         <v>26</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H2" s="7"/>
     </row>
@@ -2531,10 +2561,10 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D3" s="7"/>
       <c r="E3" s="7" t="s">
@@ -2544,7 +2574,7 @@
         <v>45</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -2553,10 +2583,10 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="7" t="s">
@@ -2566,7 +2596,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H4" s="7"/>
     </row>
@@ -2575,10 +2605,10 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C5" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="7" t="s">
@@ -2588,7 +2618,7 @@
         <v>48</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H5" s="7"/>
     </row>
@@ -2596,18 +2626,16 @@
       <c r="A6" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="7"/>
@@ -2616,18 +2644,16 @@
       <c r="A7" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D7" s="7"/>
       <c r="E7" s="7" t="s">
         <v>47</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="G7" s="7"/>
       <c r="H7" s="7"/>
@@ -2636,18 +2662,16 @@
       <c r="A8" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="7" t="s">
         <v>52</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -2656,36 +2680,34 @@
       <c r="A9" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="D9" s="7"/>
       <c r="E9" s="7" t="s">
         <v>53</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="7"/>
       <c r="F10" s="7" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="G10" s="7"/>
       <c r="H10" s="7"/>
@@ -2695,28 +2717,28 @@
         <v>42</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
       <c r="F11" s="7" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C12" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D12" t="s">
         <v>58</v>
@@ -2726,19 +2748,19 @@
         <v>1E-3</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C13" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C13" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D13" t="s">
         <v>59</v>
@@ -2748,19 +2770,19 @@
         <v>5.0000000000000001E-4</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="D14" t="s">
         <v>60</v>
@@ -2770,19 +2792,19 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
@@ -2790,7 +2812,7 @@
         <v>1000</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="H15" s="7"/>
     </row>
@@ -2799,17 +2821,17 @@
         <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>87</v>
+        <v>183</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D16" t="s">
         <v>58</v>
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
@@ -2819,17 +2841,17 @@
         <v>43</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>87</v>
+        <v>184</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D17" t="s">
         <v>59</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
@@ -2839,17 +2861,17 @@
         <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>87</v>
+        <v>185</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
         <v>60</v>
       </c>
       <c r="E18" s="7"/>
       <c r="F18" s="7" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
@@ -2859,17 +2881,17 @@
         <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D19" t="s">
         <v>58</v>
       </c>
       <c r="E19" s="7"/>
       <c r="F19" s="7" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
@@ -2879,17 +2901,17 @@
         <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>88</v>
+        <v>187</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D20" t="s">
         <v>59</v>
       </c>
       <c r="E20" s="7"/>
       <c r="F20" s="7" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
@@ -2899,128 +2921,119 @@
         <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>88</v>
+        <v>188</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="D21" t="s">
         <v>60</v>
       </c>
       <c r="E21" s="7"/>
       <c r="F21" s="7" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G21" s="7"/>
       <c r="H21" s="7"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="7" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="G23" s="7"/>
       <c r="H23" s="7"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B25" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>133</v>
-      </c>
       <c r="C25" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>147</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="G26" s="7"/>
       <c r="H26" s="7"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>143</v>
-      </c>
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
-      <c r="F27" s="7" t="s">
-        <v>148</v>
-      </c>
       <c r="G27" s="7"/>
       <c r="H27" s="7"/>
     </row>
@@ -3057,6 +3070,7 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
       <c r="G31" s="7"/>
       <c r="H31" s="7"/>
     </row>
@@ -8439,16 +8453,6 @@
       <c r="F569" s="7"/>
       <c r="G569" s="7"/>
       <c r="H569" s="7"/>
-    </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A570" s="7"/>
-      <c r="B570" s="7"/>
-      <c r="C570" s="7"/>
-      <c r="D570" s="7"/>
-      <c r="E570" s="7"/>
-      <c r="F570" s="7"/>
-      <c r="G570" s="7"/>
-      <c r="H570" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8721,16 +8725,16 @@
         <v>19</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="G1" s="12" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
@@ -8755,7 +8759,7 @@
         <v>12</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -8778,7 +8782,7 @@
         <v>12</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
@@ -8798,7 +8802,7 @@
         <v>12</v>
       </c>
       <c r="H4" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -8818,7 +8822,7 @@
         <v>12</v>
       </c>
       <c r="H5" s="11" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -9007,8 +9011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:A9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9031,13 +9035,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="G1" s="9" t="s">
         <v>10</v>
@@ -9045,136 +9049,136 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="C2" t="s">
-        <v>127</v>
+        <v>193</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E2" t="s">
         <v>64</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="B3" t="s">
-        <v>126</v>
+        <v>194</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="D3" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E3" t="s">
         <v>65</v>
       </c>
       <c r="G3" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s">
-        <v>126</v>
+        <v>195</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>195</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E4" t="s">
         <v>28</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="C5" t="s">
-        <v>130</v>
+        <v>189</v>
       </c>
       <c r="D5" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E5" t="s">
         <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="D6" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="C7" t="s">
-        <v>130</v>
+        <v>191</v>
       </c>
       <c r="D7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="E7" t="s">
         <v>28</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="C8" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="E8" t="s">
         <v>65</v>
@@ -9183,18 +9187,21 @@
         <v>66</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s">
-        <v>155</v>
+        <v>142</v>
+      </c>
+      <c r="C9" t="s">
+        <v>192</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G9" s="11">
         <v>100</v>
@@ -9259,7 +9266,7 @@
         <v>26</v>
       </c>
       <c r="F1" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G1" t="s">
         <v>27</v>
@@ -9275,10 +9282,10 @@
         <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D2" t="s">
         <v>37</v>
@@ -9298,10 +9305,10 @@
         <v>45</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D3" t="s">
         <v>39</v>
@@ -9310,7 +9317,7 @@
         <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
         <v>18</v>
@@ -9321,25 +9328,25 @@
         <v>45</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E4" t="s">
         <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s">
         <v>41</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
@@ -9347,22 +9354,22 @@
         <v>45</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
         <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H5" t="s">
         <v>18</v>
@@ -9373,22 +9380,22 @@
         <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
         <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="H6" t="s">
         <v>43</v>
@@ -9399,22 +9406,22 @@
         <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F7" t="s">
         <v>34</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H7" t="s">
         <v>18</v>
@@ -9425,10 +9432,10 @@
         <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D8" t="s">
         <v>32</v>
@@ -9440,7 +9447,7 @@
         <v>35</v>
       </c>
       <c r="G8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="H8" t="s">
         <v>18</v>
@@ -9451,10 +9458,10 @@
         <v>45</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D9" t="s">
         <v>31</v>
@@ -9466,7 +9473,7 @@
         <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="H9" t="s">
         <v>44</v>
@@ -9485,7 +9492,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106C64-597A-1343-B5D7-D61DA8E9983B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9502,49 +9509,49 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="52" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="C2" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="C4" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="D4" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
     </row>
   </sheetData>
@@ -9556,129 +9563,131 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="C1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C5" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="C9" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C10" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B11" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
     </row>
   </sheetData>

--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCED58A-A919-434F-AA54-D863E75826A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3575A8F-2D14-BB49-BB12-AB8860DFA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="197">
   <si>
     <t>timeframe</t>
   </si>
@@ -616,6 +616,9 @@
   </si>
   <si>
     <t>Relapse LYs</t>
+  </si>
+  <si>
+    <t>wtp</t>
   </si>
 </sst>
 </file>
@@ -9011,7 +9014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G13"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B4"/>
     </sheetView>
   </sheetViews>
@@ -9490,15 +9493,15 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106C64-597A-1343-B5D7-D61DA8E9983B}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
@@ -9509,10 +9512,13 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="52" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="52" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>160</v>
       </c>
@@ -9522,11 +9528,14 @@
       <c r="C2" t="s">
         <v>161</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2">
+        <v>100000</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>122</v>
       </c>
@@ -9536,11 +9545,14 @@
       <c r="C3" t="s">
         <v>123</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>100000</v>
+      </c>
+      <c r="E3" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>162</v>
       </c>
@@ -9550,7 +9562,7 @@
       <c r="C4" t="s">
         <v>163</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>172</v>
       </c>
     </row>

--- a/inst/models/checkimab/model.xlsx
+++ b/inst/models/checkimab/model.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/heRomod2/inst/models/checkimab/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jrdnmdhl/Code/openqaly packages/openqaly/inst/models/checkimab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3575A8F-2D14-BB49-BB12-AB8860DFA459}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E4920AE-CC98-E749-AD82-FE7ED02EF143}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="28800" windowHeight="18000" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="settings" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="194">
   <si>
     <t>timeframe</t>
   </si>
@@ -480,9 +480,6 @@
     <t>relapse_free_on_tx</t>
   </si>
   <si>
-    <t>ifelse(state_cycle &gt; 3, 0.2, 0.3)</t>
-  </si>
-  <si>
     <t>relapse_free_off_tx</t>
   </si>
   <si>
@@ -493,12 +490,6 @@
   </si>
   <si>
     <t>C</t>
-  </si>
-  <si>
-    <t>0.03</t>
-  </si>
-  <si>
-    <t>0.01</t>
   </si>
   <si>
     <t>0.04</t>
@@ -2496,7 +2487,7 @@
   <dimension ref="A1:H569"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2533,7 @@
         <v>22</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>73</v>
@@ -2564,7 +2555,7 @@
         <v>22</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>73</v>
@@ -2586,7 +2577,7 @@
         <v>22</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C4" s="7" t="s">
         <v>73</v>
@@ -2608,7 +2599,7 @@
         <v>22</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>73</v>
@@ -2738,7 +2729,7 @@
         <v>83</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>85</v>
@@ -2760,7 +2751,7 @@
         <v>83</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>85</v>
@@ -2782,7 +2773,7 @@
         <v>83</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C14" s="7" t="s">
         <v>85</v>
@@ -2824,7 +2815,7 @@
         <v>43</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C16" s="7" t="s">
         <v>84</v>
@@ -2844,7 +2835,7 @@
         <v>43</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C17" s="7" t="s">
         <v>84</v>
@@ -2864,7 +2855,7 @@
         <v>43</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C18" s="7" t="s">
         <v>84</v>
@@ -2884,7 +2875,7 @@
         <v>44</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C19" s="7" t="s">
         <v>86</v>
@@ -2904,7 +2895,7 @@
         <v>44</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C20" s="7" t="s">
         <v>86</v>
@@ -2924,7 +2915,7 @@
         <v>44</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>86</v>
@@ -9015,7 +9006,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B4"/>
+      <selection activeCell="G6" sqref="A6:G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9052,13 +9043,13 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C2" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
         <v>144</v>
@@ -9072,13 +9063,13 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C3" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
         <v>144</v>
@@ -9092,13 +9083,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C4" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
         <v>144</v>
@@ -9112,13 +9103,13 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
         <v>144</v>
@@ -9127,18 +9118,18 @@
         <v>64</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C6" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
         <v>144</v>
@@ -9147,18 +9138,18 @@
         <v>65</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
         <v>144</v>
@@ -9167,7 +9158,7 @@
         <v>28</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -9201,7 +9192,7 @@
         <v>142</v>
       </c>
       <c r="C9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
         <v>145</v>
@@ -9495,7 +9486,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB106C64-597A-1343-B5D7-D61DA8E9983B}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
@@ -9512,27 +9503,27 @@
         <v>8</v>
       </c>
       <c r="D1" s="16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="52" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D2">
         <v>100000</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -9549,21 +9540,21 @@
         <v>100000</v>
       </c>
       <c r="E3" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C4" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E4" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -9575,11 +9566,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -9600,7 +9595,7 @@
         <v>149</v>
       </c>
       <c r="C2" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -9608,10 +9603,10 @@
         <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -9619,10 +9614,10 @@
         <v>149</v>
       </c>
       <c r="B4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -9630,76 +9625,76 @@
         <v>149</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C5" t="s">
-        <v>154</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" t="s">
         <v>151</v>
       </c>
-      <c r="B7" t="s">
-        <v>152</v>
-      </c>
       <c r="C7" t="s">
-        <v>155</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>156</v>
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B9" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C9" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
+        <v>151</v>
+      </c>
+      <c r="B10" t="s">
         <v>152</v>
       </c>
-      <c r="B10" t="s">
-        <v>153</v>
-      </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
   </sheetData>
